--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -13216,7 +13216,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -17717,7 +17717,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -18360,7 +18360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -19003,7 +19003,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -30577,7 +30577,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -32506,7 +32506,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -33149,7 +33149,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -35078,7 +35078,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -36364,7 +36364,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -37007,7 +37007,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -37650,7 +37650,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -38293,7 +38293,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -38936,7 +38936,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -39579,7 +39579,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -40222,7 +40222,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -40865,7 +40865,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -41508,7 +41508,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -42151,7 +42151,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -42794,7 +42794,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -43437,7 +43437,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -44080,7 +44080,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -44723,7 +44723,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -45366,7 +45366,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -46009,7 +46009,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -46652,7 +46652,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -47295,7 +47295,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -47938,7 +47938,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -48581,7 +48581,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -49224,7 +49224,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -49867,7 +49867,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -50510,7 +50510,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -51153,7 +51153,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -51796,7 +51796,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -52439,7 +52439,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -53082,7 +53082,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -53725,7 +53725,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -54368,7 +54368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -55011,7 +55011,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -55654,7 +55654,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -56297,7 +56297,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -56940,7 +56940,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -57583,7 +57583,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -58226,7 +58226,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -58869,7 +58869,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -59512,7 +59512,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -60155,7 +60155,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -60798,7 +60798,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -61441,7 +61441,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -62084,7 +62084,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -62727,7 +62727,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -63370,7 +63370,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -64013,7 +64013,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -64656,7 +64656,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -65299,7 +65299,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HG102"/>
+  <dimension ref="A1:HH102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1033,11 +1033,14 @@
       <c r="HF1" s="1" t="n">
         <v>10126</v>
       </c>
-      <c r="HG1" t="n">
+      <c r="HG1" s="1" t="n">
         <v>10138</v>
       </c>
+      <c r="HH1" t="n">
+        <v>10145</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1682,11 +1685,14 @@
       <c r="HF2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HG2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HH2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2331,11 +2337,14 @@
       <c r="HF3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HG3" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH3" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2980,11 +2989,14 @@
       <c r="HF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HG4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HH4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3629,11 +3641,14 @@
       <c r="HF5" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="HG5" t="n">
+      <c r="HG5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4278,11 +4293,14 @@
       <c r="HF6" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HG6" t="n">
+      <c r="HG6" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="HH6" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4927,11 +4945,14 @@
       <c r="HF7" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HG7" t="n">
+      <c r="HG7" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HH7" t="n">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5576,11 +5597,14 @@
       <c r="HF8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HG8" t="n">
+      <c r="HG8" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="HH8" t="n">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6225,11 +6249,14 @@
       <c r="HF9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="HG9" t="n">
+      <c r="HG9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HH9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6874,11 +6901,14 @@
       <c r="HF10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HG10" t="n">
+      <c r="HG10" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HH10" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7523,11 +7553,14 @@
       <c r="HF11" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="HG11" t="n">
+      <c r="HG11" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="HH11" t="n">
+        <v>177</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8172,11 +8205,14 @@
       <c r="HF12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="HG12" t="n">
+      <c r="HG12" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="HH12" t="n">
+        <v>112</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8821,11 +8857,14 @@
       <c r="HF13" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="HG13" t="n">
+      <c r="HG13" s="1" t="n">
         <v>347</v>
       </c>
+      <c r="HH13" t="n">
+        <v>289</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9470,11 +9509,14 @@
       <c r="HF14" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="HG14" t="n">
+      <c r="HG14" s="1" t="n">
         <v>1.27</v>
       </c>
+      <c r="HH14" t="n">
+        <v>1.58</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10119,11 +10161,14 @@
       <c r="HF15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="HG15" t="n">
+      <c r="HG15" s="1" t="n">
         <v>101</v>
       </c>
+      <c r="HH15" t="n">
+        <v>72</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10768,11 +10813,14 @@
       <c r="HF16" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HG16" t="n">
+      <c r="HG16" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="HH16" t="n">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11417,11 +11465,14 @@
       <c r="HF17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HG17" t="n">
+      <c r="HG17" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HH17" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -12066,11 +12117,14 @@
       <c r="HF18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HG18" t="n">
+      <c r="HG18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HH18" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12715,11 +12769,14 @@
       <c r="HF19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HG19" t="n">
+      <c r="HG19" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HH19" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13364,11 +13421,14 @@
       <c r="HF20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG20" t="n">
+      <c r="HG20" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HH20" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -14013,11 +14073,14 @@
       <c r="HF21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HG21" t="n">
+      <c r="HG21" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HH21" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14662,11 +14725,14 @@
       <c r="HF22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HG22" t="n">
+      <c r="HG22" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HH22" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15311,11 +15377,14 @@
       <c r="HF23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HG23" t="n">
+      <c r="HG23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HH23" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15960,11 +16029,14 @@
       <c r="HF24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HG24" t="n">
+      <c r="HG24" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HH24" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16609,11 +16681,14 @@
       <c r="HF25" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="HG25" t="n">
+      <c r="HG25" s="1" t="n">
         <v>57.1</v>
       </c>
+      <c r="HH25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -17258,11 +17333,14 @@
       <c r="HF26" s="1" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="HG26" t="n">
+      <c r="HG26" s="1" t="n">
         <v>28.92</v>
       </c>
+      <c r="HH26" t="n">
+        <v>32.11</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17907,11 +17985,14 @@
       <c r="HF27" s="1" t="n">
         <v>30.27</v>
       </c>
-      <c r="HG27" t="n">
+      <c r="HG27" s="1" t="n">
         <v>16.52</v>
       </c>
+      <c r="HH27" t="n">
+        <v>15.21</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18556,11 +18637,14 @@
       <c r="HF28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HG28" t="n">
+      <c r="HG28" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HH28" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -19205,11 +19289,14 @@
       <c r="HF29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HG29" t="n">
+      <c r="HG29" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HH29" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19854,11 +19941,14 @@
       <c r="HF30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HG30" t="n">
+      <c r="HG30" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HH30" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20503,11 +20593,14 @@
       <c r="HF31" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HG31" t="n">
+      <c r="HG31" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HH31" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -21152,11 +21245,14 @@
       <c r="HF32" s="1" t="n">
         <v>2.91</v>
       </c>
-      <c r="HG32" t="n">
+      <c r="HG32" s="1" t="n">
         <v>1.9</v>
       </c>
+      <c r="HH32" t="n">
+        <v>2.53</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21801,11 +21897,14 @@
       <c r="HF33" s="1" t="n">
         <v>6.4</v>
       </c>
-      <c r="HG33" t="n">
+      <c r="HG33" s="1" t="n">
         <v>3.33</v>
       </c>
+      <c r="HH33" t="n">
+        <v>5.33</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -22450,11 +22549,14 @@
       <c r="HF34" s="1" t="n">
         <v>28.1</v>
       </c>
-      <c r="HG34" t="n">
+      <c r="HG34" s="1" t="n">
         <v>52.5</v>
       </c>
+      <c r="HH34" t="n">
+        <v>35.4</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -23099,11 +23201,14 @@
       <c r="HF35" s="1" t="n">
         <v>15.6</v>
       </c>
-      <c r="HG35" t="n">
+      <c r="HG35" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HH35" t="n">
+        <v>18.8</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23748,11 +23853,14 @@
       <c r="HF36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="HG36" t="n">
+      <c r="HG36" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="HH36" t="n">
+        <v>189.3</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -24397,11 +24505,14 @@
       <c r="HF37" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="HG37" t="n">
+      <c r="HG37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HH37" t="n">
+        <v>87</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -25046,11 +25157,14 @@
       <c r="HF38" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="HG38" t="n">
+      <c r="HG38" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="HH38" t="n">
+        <v>26.24</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -25695,11 +25809,14 @@
       <c r="HF39" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HG39" t="n">
+      <c r="HG39" s="1" t="n">
         <v>102.9</v>
       </c>
+      <c r="HH39" t="n">
+        <v>106.4</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -26344,11 +26461,14 @@
       <c r="HF40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HG40" t="n">
+      <c r="HG40" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HH40" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26993,11 +27113,14 @@
       <c r="HF41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG41" t="n">
+      <c r="HG41" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH41" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -27642,11 +27765,14 @@
       <c r="HF42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG42" t="n">
+      <c r="HG42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HH42" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -28291,11 +28417,14 @@
       <c r="HF43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG43" t="n">
+      <c r="HG43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HH43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28940,11 +29069,14 @@
       <c r="HF44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="HG44" t="n">
+      <c r="HG44" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="HH44" t="n">
+        <v>127</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -29589,11 +29721,14 @@
       <c r="HF45" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="HG45" t="n">
+      <c r="HG45" s="1" t="n">
         <v>234</v>
       </c>
+      <c r="HH45" t="n">
+        <v>155</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -30238,11 +30373,14 @@
       <c r="HF46" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HG46" t="n">
+      <c r="HG46" s="1" t="n">
         <v>267</v>
       </c>
+      <c r="HH46" t="n">
+        <v>200</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30887,11 +31025,14 @@
       <c r="HF47" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="HG47" t="n">
+      <c r="HG47" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HH47" t="n">
+        <v>69.2</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -31536,11 +31677,14 @@
       <c r="HF48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HG48" t="n">
+      <c r="HG48" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HH48" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -32185,11 +32329,14 @@
       <c r="HF49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HG49" t="n">
+      <c r="HG49" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HH49" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -32834,11 +32981,14 @@
       <c r="HF50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HG50" t="n">
+      <c r="HG50" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HH50" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -33483,11 +33633,14 @@
       <c r="HF51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HG51" t="n">
+      <c r="HG51" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HH51" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -34132,11 +34285,14 @@
       <c r="HF52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HG52" t="n">
+      <c r="HG52" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HH52" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -34781,11 +34937,14 @@
       <c r="HF53" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HG53" t="n">
+      <c r="HG53" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HH53" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -35430,11 +35589,14 @@
       <c r="HF54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HG54" t="n">
+      <c r="HG54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HH54" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -36079,11 +36241,14 @@
       <c r="HF55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HG55" t="n">
+      <c r="HG55" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HH55" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -36728,11 +36893,14 @@
       <c r="HF56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HG56" t="n">
+      <c r="HG56" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="HH56" t="n">
+        <v>55.6</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -37377,11 +37545,14 @@
       <c r="HF57" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="HG57" t="n">
+      <c r="HG57" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="HH57" t="n">
+        <v>163</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -38026,11 +38197,14 @@
       <c r="HF58" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HG58" t="n">
+      <c r="HG58" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="HH58" t="n">
+        <v>128</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -38675,11 +38849,14 @@
       <c r="HF59" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="HG59" t="n">
+      <c r="HG59" s="1" t="n">
         <v>305</v>
       </c>
+      <c r="HH59" t="n">
+        <v>291</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -39324,11 +39501,14 @@
       <c r="HF60" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="HG60" t="n">
+      <c r="HG60" s="1" t="n">
         <v>1.54</v>
       </c>
+      <c r="HH60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -39973,11 +40153,14 @@
       <c r="HF61" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HG61" t="n">
+      <c r="HG61" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="HH61" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -40622,11 +40805,14 @@
       <c r="HF62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HG62" t="n">
+      <c r="HG62" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="HH62" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -41271,11 +41457,14 @@
       <c r="HF63" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HG63" t="n">
+      <c r="HG63" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HH63" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -41920,11 +42109,14 @@
       <c r="HF64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HG64" t="n">
+      <c r="HG64" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HH64" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -42569,11 +42761,14 @@
       <c r="HF65" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HG65" t="n">
+      <c r="HG65" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HH65" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -43218,11 +43413,14 @@
       <c r="HF66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG66" t="n">
+      <c r="HG66" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HH66" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -43867,11 +44065,14 @@
       <c r="HF67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HG67" t="n">
+      <c r="HG67" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH67" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -44516,11 +44717,14 @@
       <c r="HF68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HG68" t="n">
+      <c r="HG68" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HH68" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -45165,11 +45369,14 @@
       <c r="HF69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HG69" t="n">
+      <c r="HG69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HH69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -45814,11 +46021,14 @@
       <c r="HF70" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HG70" t="n">
+      <c r="HG70" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HH70" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -46463,11 +46673,14 @@
       <c r="HF71" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="HG71" t="n">
+      <c r="HG71" s="1" t="n">
         <v>41.7</v>
       </c>
+      <c r="HH71" t="n">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -47112,11 +47325,14 @@
       <c r="HF72" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="HG72" t="n">
+      <c r="HG72" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="HH72" t="n">
+        <v>29.1</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -47761,11 +47977,14 @@
       <c r="HF73" s="1" t="n">
         <v>25.55</v>
       </c>
-      <c r="HG73" t="n">
+      <c r="HG73" s="1" t="n">
         <v>25.42</v>
       </c>
+      <c r="HH73" t="n">
+        <v>18.19</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -48410,11 +48629,14 @@
       <c r="HF74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HG74" t="n">
+      <c r="HG74" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HH74" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -49059,11 +49281,14 @@
       <c r="HF75" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HG75" t="n">
+      <c r="HG75" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HH75" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -49708,11 +49933,14 @@
       <c r="HF76" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HG76" t="n">
+      <c r="HG76" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HH76" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -50357,11 +50585,14 @@
       <c r="HF77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HG77" t="n">
+      <c r="HG77" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HH77" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -51006,11 +51237,14 @@
       <c r="HF78" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HG78" t="n">
+      <c r="HG78" s="1" t="n">
         <v>2.83</v>
       </c>
+      <c r="HH78" t="n">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -51655,11 +51889,14 @@
       <c r="HF79" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="HG79" t="n">
+      <c r="HG79" s="1" t="n">
         <v>6.8</v>
       </c>
+      <c r="HH79" t="n">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -52304,11 +52541,14 @@
       <c r="HF80" s="1" t="n">
         <v>15.9</v>
       </c>
-      <c r="HG80" t="n">
+      <c r="HG80" s="1" t="n">
         <v>32.4</v>
       </c>
+      <c r="HH80" t="n">
+        <v>37.8</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -52953,11 +53193,14 @@
       <c r="HF81" s="1" t="n">
         <v>11.4</v>
       </c>
-      <c r="HG81" t="n">
+      <c r="HG81" s="1" t="n">
         <v>14.7</v>
       </c>
+      <c r="HH81" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -53602,11 +53845,14 @@
       <c r="HF82" s="1" t="n">
         <v>184.4</v>
       </c>
-      <c r="HG82" t="n">
+      <c r="HG82" s="1" t="n">
         <v>188.1</v>
       </c>
+      <c r="HH82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -54251,11 +54497,14 @@
       <c r="HF83" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="HG83" t="n">
+      <c r="HG83" s="1" t="n">
         <v>85.3</v>
       </c>
+      <c r="HH83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -54900,11 +55149,14 @@
       <c r="HF84" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="HG84" t="n">
+      <c r="HG84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="HH84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -55549,11 +55801,14 @@
       <c r="HF85" s="1" t="n">
         <v>113.2</v>
       </c>
-      <c r="HG85" t="n">
+      <c r="HG85" s="1" t="n">
         <v>77.5</v>
       </c>
+      <c r="HH85" t="n">
+        <v>109.9</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -56198,11 +56453,14 @@
       <c r="HF86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HG86" t="n">
+      <c r="HG86" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HH86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -56847,11 +57105,14 @@
       <c r="HF87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HG87" t="n">
+      <c r="HG87" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HH87" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -57496,11 +57757,14 @@
       <c r="HF88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HG88" t="n">
+      <c r="HG88" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH88" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -58145,11 +58409,14 @@
       <c r="HF89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HG89" t="n">
+      <c r="HG89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH89" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -58794,11 +59061,14 @@
       <c r="HF90" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HG90" t="n">
+      <c r="HG90" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="HH90" t="n">
+        <v>116</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -59443,11 +59713,14 @@
       <c r="HF91" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="HG91" t="n">
+      <c r="HG91" s="1" t="n">
         <v>197</v>
       </c>
+      <c r="HH91" t="n">
+        <v>162</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -60092,11 +60365,14 @@
       <c r="HF92" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HG92" t="n">
+      <c r="HG92" s="1" t="n">
         <v>227</v>
       </c>
+      <c r="HH92" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -60741,11 +61017,14 @@
       <c r="HF93" s="1" t="n">
         <v>67.3</v>
       </c>
-      <c r="HG93" t="n">
+      <c r="HG93" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
+      <c r="HH93" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -61390,11 +61669,14 @@
       <c r="HF94" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HG94" t="n">
+      <c r="HG94" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HH94" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -62039,11 +62321,14 @@
       <c r="HF95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HG95" t="n">
+      <c r="HG95" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HH95" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -62688,11 +62973,14 @@
       <c r="HF96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HG96" t="n">
+      <c r="HG96" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HH96" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -63337,11 +63625,14 @@
       <c r="HF97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HG97" t="n">
+      <c r="HG97" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HH97" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -63986,11 +64277,14 @@
       <c r="HF98" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HG98" t="n">
+      <c r="HG98" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HH98" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -64635,11 +64929,14 @@
       <c r="HF99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HG99" t="n">
+      <c r="HG99" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HH99" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -65284,11 +65581,14 @@
       <c r="HF100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HG100" t="n">
+      <c r="HG100" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH100" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -65933,11 +66233,14 @@
       <c r="HF101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HG101" t="n">
+      <c r="HG101" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HH101" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -66582,13 +66885,16 @@
       <c r="HF102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HG102" t="n">
+      <c r="HG102" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HH102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HH102"/>
+  <dimension ref="A1:HI102"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
@@ -1036,8 +1036,11 @@
       <c r="HG1" s="1" t="n">
         <v>10138</v>
       </c>
-      <c r="HH1" t="n">
+      <c r="HH1" s="1" t="n">
         <v>10145</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>10183</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="2">
@@ -1688,7 +1691,10 @@
       <c r="HG2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HH2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HI2" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -2340,8 +2346,11 @@
       <c r="HG3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HH3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="2">
@@ -2992,8 +3001,11 @@
       <c r="HG4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HH4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="2">
@@ -3644,8 +3656,11 @@
       <c r="HG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HH5" t="n">
+      <c r="HH5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="2">
@@ -4296,8 +4311,11 @@
       <c r="HG6" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="HH6" t="n">
+      <c r="HH6" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="2">
@@ -4948,8 +4966,11 @@
       <c r="HG7" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HH7" t="n">
+      <c r="HH7" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="2">
@@ -5600,8 +5621,11 @@
       <c r="HG8" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HH8" t="n">
+      <c r="HH8" s="1" t="n">
         <v>-2</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="2">
@@ -6252,7 +6276,10 @@
       <c r="HG9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HH9" t="n">
+      <c r="HH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6904,8 +6931,11 @@
       <c r="HG10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HH10" t="n">
+      <c r="HH10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="2">
@@ -7556,8 +7586,11 @@
       <c r="HG11" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="HH11" t="n">
+      <c r="HH11" s="1" t="n">
         <v>177</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="2">
@@ -8208,8 +8241,11 @@
       <c r="HG12" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="HH12" t="n">
+      <c r="HH12" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="2">
@@ -8860,8 +8896,11 @@
       <c r="HG13" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="HH13" t="n">
+      <c r="HH13" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>318</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="2">
@@ -9512,8 +9551,11 @@
       <c r="HG14" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="HH14" t="n">
+      <c r="HH14" s="1" t="n">
         <v>1.58</v>
+      </c>
+      <c r="HI14" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="2">
@@ -10164,8 +10206,11 @@
       <c r="HG15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="HH15" t="n">
+      <c r="HH15" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="HI15" t="n">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="2">
@@ -10816,8 +10861,11 @@
       <c r="HG16" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HH16" t="n">
+      <c r="HH16" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="2">
@@ -11468,8 +11516,11 @@
       <c r="HG17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HH17" t="n">
+      <c r="HH17" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="2">
@@ -12120,8 +12171,11 @@
       <c r="HG18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HH18" t="n">
+      <c r="HH18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HI18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="2">
@@ -12772,8 +12826,11 @@
       <c r="HG19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HH19" t="n">
+      <c r="HH19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HI19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="2">
@@ -13424,8 +13481,11 @@
       <c r="HG20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HH20" t="n">
+      <c r="HH20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HI20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="2">
@@ -14076,8 +14136,11 @@
       <c r="HG21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HH21" t="n">
+      <c r="HH21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="2">
@@ -14728,8 +14791,11 @@
       <c r="HG22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HH22" t="n">
+      <c r="HH22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HI22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="2">
@@ -15380,8 +15446,11 @@
       <c r="HG23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HH23" t="n">
+      <c r="HH23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="2">
@@ -16032,8 +16101,11 @@
       <c r="HG24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HH24" t="n">
+      <c r="HH24" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="2">
@@ -16684,8 +16756,11 @@
       <c r="HG25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="HH25" t="n">
+      <c r="HH25" s="1" t="n">
         <v>47.4</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="2">
@@ -17336,8 +17411,11 @@
       <c r="HG26" s="1" t="n">
         <v>28.92</v>
       </c>
-      <c r="HH26" t="n">
+      <c r="HH26" s="1" t="n">
         <v>32.11</v>
+      </c>
+      <c r="HI26" t="n">
+        <v>45.43</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="2">
@@ -17988,8 +18066,11 @@
       <c r="HG27" s="1" t="n">
         <v>16.52</v>
       </c>
-      <c r="HH27" t="n">
+      <c r="HH27" s="1" t="n">
         <v>15.21</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>24.46</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="2">
@@ -18640,8 +18721,11 @@
       <c r="HG28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HH28" t="n">
+      <c r="HH28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HI28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="2">
@@ -19292,8 +19376,11 @@
       <c r="HG29" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HH29" t="n">
+      <c r="HH29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="2">
@@ -19944,8 +20031,11 @@
       <c r="HG30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HH30" t="n">
+      <c r="HH30" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HI30" t="n">
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="2">
@@ -20596,8 +20686,11 @@
       <c r="HG31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HH31" t="n">
+      <c r="HH31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HI31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="2">
@@ -21248,8 +21341,11 @@
       <c r="HG32" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="HH32" t="n">
+      <c r="HH32" s="1" t="n">
         <v>2.53</v>
+      </c>
+      <c r="HI32" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="2">
@@ -21900,8 +21996,11 @@
       <c r="HG33" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="HH33" t="n">
+      <c r="HH33" s="1" t="n">
         <v>5.33</v>
+      </c>
+      <c r="HI33" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="2">
@@ -22552,8 +22651,11 @@
       <c r="HG34" s="1" t="n">
         <v>52.5</v>
       </c>
-      <c r="HH34" t="n">
+      <c r="HH34" s="1" t="n">
         <v>35.4</v>
+      </c>
+      <c r="HI34" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="2">
@@ -23204,8 +23306,11 @@
       <c r="HG35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HH35" t="n">
+      <c r="HH35" s="1" t="n">
         <v>18.8</v>
+      </c>
+      <c r="HI35" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="2">
@@ -23856,7 +23961,10 @@
       <c r="HG36" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HH36" t="n">
+      <c r="HH36" s="1" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HI36" t="n">
         <v>189.3</v>
       </c>
     </row>
@@ -24508,8 +24616,11 @@
       <c r="HG37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="HH37" t="n">
+      <c r="HH37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="HI37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="2">
@@ -25160,8 +25271,11 @@
       <c r="HG38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HH38" t="n">
+      <c r="HH38" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="HI38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="39" s="2">
@@ -25812,8 +25926,11 @@
       <c r="HG39" s="1" t="n">
         <v>102.9</v>
       </c>
-      <c r="HH39" t="n">
+      <c r="HH39" s="1" t="n">
         <v>106.4</v>
+      </c>
+      <c r="HI39" t="n">
+        <v>106.9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="2">
@@ -26464,7 +26581,10 @@
       <c r="HG40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HH40" t="n">
+      <c r="HH40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -27116,7 +27236,10 @@
       <c r="HG41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH41" t="n">
+      <c r="HH41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HI41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27768,7 +27891,10 @@
       <c r="HG42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HH42" t="n">
+      <c r="HH42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28420,7 +28546,10 @@
       <c r="HG43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HH43" t="n">
+      <c r="HH43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29072,8 +29201,11 @@
       <c r="HG44" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="HH44" t="n">
+      <c r="HH44" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="2">
@@ -29724,8 +29856,11 @@
       <c r="HG45" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="HH45" t="n">
+      <c r="HH45" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>192</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="2">
@@ -30376,8 +30511,11 @@
       <c r="HG46" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="HH46" t="n">
+      <c r="HH46" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="HI46" t="n">
+        <v>216</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="2">
@@ -31028,8 +31166,11 @@
       <c r="HG47" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="HH47" t="n">
+      <c r="HH47" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="HI47" t="n">
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="2">
@@ -31680,8 +31821,11 @@
       <c r="HG48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HH48" t="n">
+      <c r="HH48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HI48" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="2">
@@ -32332,8 +32476,11 @@
       <c r="HG49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HH49" t="n">
+      <c r="HH49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HI49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="2">
@@ -32984,8 +33131,11 @@
       <c r="HG50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HH50" t="n">
+      <c r="HH50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="51" s="2">
@@ -33636,8 +33786,11 @@
       <c r="HG51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HH51" t="n">
+      <c r="HH51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HI51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="2">
@@ -34288,8 +34441,11 @@
       <c r="HG52" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HH52" t="n">
+      <c r="HH52" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HI52" t="n">
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="2">
@@ -34940,8 +35096,11 @@
       <c r="HG53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HH53" t="n">
+      <c r="HH53" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HI53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="2">
@@ -35592,8 +35751,11 @@
       <c r="HG54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HH54" t="n">
+      <c r="HH54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HI54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="55" s="2">
@@ -36244,8 +36406,11 @@
       <c r="HG55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HH55" t="n">
+      <c r="HH55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HI55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="2">
@@ -36896,8 +37061,11 @@
       <c r="HG56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HH56" t="n">
+      <c r="HH56" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HI56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="2">
@@ -37548,8 +37716,11 @@
       <c r="HG57" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="HH57" t="n">
+      <c r="HH57" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="HI57" t="n">
+        <v>173</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="2">
@@ -38200,8 +38371,11 @@
       <c r="HG58" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HH58" t="n">
+      <c r="HH58" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="HI58" t="n">
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="2">
@@ -38852,8 +39026,11 @@
       <c r="HG59" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="HH59" t="n">
+      <c r="HH59" s="1" t="n">
         <v>291</v>
+      </c>
+      <c r="HI59" t="n">
+        <v>272</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="2">
@@ -39504,8 +39681,11 @@
       <c r="HG60" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="HH60" t="n">
+      <c r="HH60" s="1" t="n">
         <v>1.27</v>
+      </c>
+      <c r="HI60" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="2">
@@ -40156,8 +40336,11 @@
       <c r="HG61" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="HH61" t="n">
+      <c r="HH61" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="HI61" t="n">
+        <v>67</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="2">
@@ -40808,8 +40991,11 @@
       <c r="HG62" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HH62" t="n">
+      <c r="HH62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HI62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="2">
@@ -41460,8 +41646,11 @@
       <c r="HG63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HH63" t="n">
+      <c r="HH63" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HI63" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="2">
@@ -42112,8 +42301,11 @@
       <c r="HG64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HH64" t="n">
+      <c r="HH64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HI64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="2">
@@ -42764,8 +42956,11 @@
       <c r="HG65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HH65" t="n">
+      <c r="HH65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HI65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="66" s="2">
@@ -43416,7 +43611,10 @@
       <c r="HG66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HH66" t="n">
+      <c r="HH66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HI66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -44068,8 +44266,11 @@
       <c r="HG67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH67" t="n">
+      <c r="HH67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HI67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="68" s="2">
@@ -44720,8 +44921,11 @@
       <c r="HG68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HH68" t="n">
+      <c r="HH68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HI68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="2">
@@ -45372,8 +45576,11 @@
       <c r="HG69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HH69" t="n">
+      <c r="HH69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HI69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="2">
@@ -46024,8 +46231,11 @@
       <c r="HG70" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HH70" t="n">
+      <c r="HH70" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HI70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="2">
@@ -46676,8 +46886,11 @@
       <c r="HG71" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="HH71" t="n">
+      <c r="HH71" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="HI71" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="2">
@@ -47328,8 +47541,11 @@
       <c r="HG72" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HH72" t="n">
+      <c r="HH72" s="1" t="n">
         <v>29.1</v>
+      </c>
+      <c r="HI72" t="n">
+        <v>27.2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="2">
@@ -47980,8 +48196,11 @@
       <c r="HG73" s="1" t="n">
         <v>25.42</v>
       </c>
-      <c r="HH73" t="n">
+      <c r="HH73" s="1" t="n">
         <v>18.19</v>
+      </c>
+      <c r="HI73" t="n">
+        <v>20.92</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="2">
@@ -48632,8 +48851,11 @@
       <c r="HG74" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HH74" t="n">
+      <c r="HH74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HI74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="2">
@@ -49284,8 +49506,11 @@
       <c r="HG75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HH75" t="n">
+      <c r="HH75" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HI75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="76" s="2">
@@ -49936,8 +50161,11 @@
       <c r="HG76" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HH76" t="n">
+      <c r="HH76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="77" s="2">
@@ -50588,8 +50816,11 @@
       <c r="HG77" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HH77" t="n">
+      <c r="HH77" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HI77" t="n">
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="78" s="2">
@@ -51240,8 +51471,11 @@
       <c r="HG78" s="1" t="n">
         <v>2.83</v>
       </c>
-      <c r="HH78" t="n">
+      <c r="HH78" s="1" t="n">
         <v>2.31</v>
+      </c>
+      <c r="HI78" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="2">
@@ -51892,8 +52126,11 @@
       <c r="HG79" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="HH79" t="n">
+      <c r="HH79" s="1" t="n">
         <v>3.7</v>
+      </c>
+      <c r="HI79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="2">
@@ -52544,8 +52781,11 @@
       <c r="HG80" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="HH80" t="n">
+      <c r="HH80" s="1" t="n">
         <v>37.8</v>
+      </c>
+      <c r="HI80" t="n">
+        <v>34.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="2">
@@ -53196,8 +53436,11 @@
       <c r="HG81" s="1" t="n">
         <v>14.7</v>
       </c>
-      <c r="HH81" t="n">
+      <c r="HH81" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HI81" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="82" s="2">
@@ -53848,8 +54091,11 @@
       <c r="HG82" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HH82" t="n">
+      <c r="HH82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="HI82" t="n">
+        <v>185.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="2">
@@ -54500,8 +54746,11 @@
       <c r="HG83" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="HH83" t="n">
+      <c r="HH83" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="HI83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="2">
@@ -55152,8 +55401,11 @@
       <c r="HG84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="HH84" t="n">
+      <c r="HH84" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="HI84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="2">
@@ -55804,8 +56056,11 @@
       <c r="HG85" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="HH85" t="n">
+      <c r="HH85" s="1" t="n">
         <v>109.9</v>
+      </c>
+      <c r="HI85" t="n">
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="2">
@@ -56456,7 +56711,10 @@
       <c r="HG86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HH86" t="n">
+      <c r="HH86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -57108,8 +57366,11 @@
       <c r="HG87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HH87" t="n">
+      <c r="HH87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HI87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="2">
@@ -57760,8 +58021,11 @@
       <c r="HG88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH88" t="n">
+      <c r="HH88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HI88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="89" s="2">
@@ -58412,8 +58676,11 @@
       <c r="HG89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH89" t="n">
+      <c r="HH89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HI89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="90" s="2">
@@ -59064,7 +59331,10 @@
       <c r="HG90" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HH90" t="n">
+      <c r="HH90" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="HI90" t="n">
         <v>116</v>
       </c>
     </row>
@@ -59716,8 +59986,11 @@
       <c r="HG91" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="HH91" t="n">
+      <c r="HH91" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="HI91" t="n">
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="2">
@@ -60368,8 +60641,11 @@
       <c r="HG92" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="HH92" t="n">
+      <c r="HH92" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="HI92" t="n">
+        <v>198</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="2">
@@ -61020,8 +61296,11 @@
       <c r="HG93" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="HH93" t="n">
+      <c r="HH93" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="HI93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="2">
@@ -61672,8 +61951,11 @@
       <c r="HG94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HH94" t="n">
+      <c r="HH94" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HI94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="95" s="2">
@@ -62324,8 +62606,11 @@
       <c r="HG95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HH95" t="n">
+      <c r="HH95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HI95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="2">
@@ -62976,8 +63261,11 @@
       <c r="HG96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HH96" t="n">
+      <c r="HH96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HI96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="2">
@@ -63628,8 +63916,11 @@
       <c r="HG97" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HH97" t="n">
+      <c r="HH97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="HI97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="2">
@@ -64280,8 +64571,11 @@
       <c r="HG98" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HH98" t="n">
+      <c r="HH98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HI98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="99" s="2">
@@ -64932,8 +65226,11 @@
       <c r="HG99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HH99" t="n">
+      <c r="HH99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HI99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="2">
@@ -65584,8 +65881,11 @@
       <c r="HG100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH100" t="n">
+      <c r="HH100" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="101" s="2">
@@ -66236,8 +66536,11 @@
       <c r="HG101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HH101" t="n">
+      <c r="HH101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HI101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="102" s="2">
@@ -66888,8 +67191,11 @@
       <c r="HG102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HH102" t="n">
+      <c r="HH102" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="HI102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HI102"/>
+  <dimension ref="A1:HL102"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
@@ -1039,8 +1039,17 @@
       <c r="HH1" s="1" t="n">
         <v>10145</v>
       </c>
-      <c r="HI1" t="n">
+      <c r="HI1" s="1" t="n">
         <v>10183</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>10210</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>10218</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>10233</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="2">
@@ -1694,7 +1703,16 @@
       <c r="HH2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HI2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HJ2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HK2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HL2" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -2349,8 +2367,17 @@
       <c r="HH3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HI3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HJ3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="2">
@@ -3004,8 +3031,17 @@
       <c r="HH4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HI4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="2">
@@ -3659,8 +3695,17 @@
       <c r="HH5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HI5" t="n">
+      <c r="HI5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="2">
@@ -4314,8 +4359,17 @@
       <c r="HH6" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HI6" t="n">
+      <c r="HI6" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HJ6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HK6" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="2">
@@ -4969,8 +5023,17 @@
       <c r="HH7" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HI7" t="n">
+      <c r="HI7" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HJ7" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HK7" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="2">
@@ -5624,8 +5687,17 @@
       <c r="HH8" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="HI8" t="n">
+      <c r="HI8" s="1" t="n">
         <v>-15</v>
+      </c>
+      <c r="HJ8" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HK8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>-66</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="2">
@@ -6279,7 +6351,16 @@
       <c r="HH9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HI9" t="n">
+      <c r="HI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,8 +7015,17 @@
       <c r="HH10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HI10" t="n">
+      <c r="HI10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HJ10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="2">
@@ -7589,8 +7679,17 @@
       <c r="HH11" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="HI11" t="n">
+      <c r="HI11" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="HJ11" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="HK11" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>154</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="2">
@@ -8244,8 +8343,17 @@
       <c r="HH12" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="HI12" t="n">
+      <c r="HI12" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="HJ12" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="HK12" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="2">
@@ -8899,8 +9007,17 @@
       <c r="HH13" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="HI13" t="n">
+      <c r="HI13" s="1" t="n">
         <v>318</v>
+      </c>
+      <c r="HJ13" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="HK13" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>272</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="2">
@@ -9554,8 +9671,17 @@
       <c r="HH14" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="HI14" t="n">
+      <c r="HI14" s="1" t="n">
         <v>1.05</v>
+      </c>
+      <c r="HJ14" s="1" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="HK14" s="1" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="2">
@@ -10209,8 +10335,17 @@
       <c r="HH15" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HI15" t="n">
+      <c r="HI15" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HJ15" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HK15" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="2">
@@ -10864,8 +10999,17 @@
       <c r="HH16" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HI16" t="n">
+      <c r="HI16" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HJ16" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HK16" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="2">
@@ -11519,8 +11663,17 @@
       <c r="HH17" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HI17" t="n">
+      <c r="HI17" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HJ17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="2">
@@ -12174,7 +12327,16 @@
       <c r="HH18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HI18" t="n">
+      <c r="HI18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HJ18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK18" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HL18" t="n">
         <v>21</v>
       </c>
     </row>
@@ -12829,8 +12991,17 @@
       <c r="HH19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HI19" t="n">
+      <c r="HI19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HJ19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="2">
@@ -13484,8 +13655,17 @@
       <c r="HH20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HI20" t="n">
+      <c r="HI20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HJ20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="2">
@@ -14139,8 +14319,17 @@
       <c r="HH21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HI21" t="n">
+      <c r="HI21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HJ21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="2">
@@ -14794,8 +14983,17 @@
       <c r="HH22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HI22" t="n">
+      <c r="HI22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HJ22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="2">
@@ -15449,8 +15647,17 @@
       <c r="HH23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HI23" t="n">
+      <c r="HI23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HJ23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="2">
@@ -16104,8 +16311,17 @@
       <c r="HH24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HI24" t="n">
+      <c r="HI24" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HJ24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="2">
@@ -16759,8 +16975,17 @@
       <c r="HH25" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="HI25" t="n">
+      <c r="HI25" s="1" t="n">
         <v>53.8</v>
+      </c>
+      <c r="HJ25" s="1" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="HK25" s="1" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="2">
@@ -17414,8 +17639,17 @@
       <c r="HH26" s="1" t="n">
         <v>32.11</v>
       </c>
-      <c r="HI26" t="n">
+      <c r="HI26" s="1" t="n">
         <v>45.43</v>
+      </c>
+      <c r="HJ26" s="1" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="HK26" s="1" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>45.33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="2">
@@ -18069,8 +18303,17 @@
       <c r="HH27" s="1" t="n">
         <v>15.21</v>
       </c>
-      <c r="HI27" t="n">
+      <c r="HI27" s="1" t="n">
         <v>24.46</v>
+      </c>
+      <c r="HJ27" s="1" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="HK27" s="1" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="HL27" t="n">
+        <v>18.13</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="2">
@@ -18724,8 +18967,17 @@
       <c r="HH28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HI28" t="n">
+      <c r="HI28" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HJ28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HK28" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HL28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="2">
@@ -19379,8 +19631,17 @@
       <c r="HH29" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HI29" t="n">
+      <c r="HI29" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HJ29" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK29" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="2">
@@ -20034,8 +20295,17 @@
       <c r="HH30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HI30" t="n">
+      <c r="HI30" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HJ30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK30" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HL30" t="n">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="2">
@@ -20689,8 +20959,17 @@
       <c r="HH31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HI31" t="n">
+      <c r="HI31" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HJ31" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HK31" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HL31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="2">
@@ -21344,8 +21623,17 @@
       <c r="HH32" s="1" t="n">
         <v>2.53</v>
       </c>
-      <c r="HI32" t="n">
+      <c r="HI32" s="1" t="n">
         <v>3.15</v>
+      </c>
+      <c r="HJ32" s="1" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="HK32" s="1" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="HL32" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="2">
@@ -21999,8 +22287,17 @@
       <c r="HH33" s="1" t="n">
         <v>5.33</v>
       </c>
-      <c r="HI33" t="n">
+      <c r="HI33" s="1" t="n">
         <v>5.86</v>
+      </c>
+      <c r="HJ33" s="1" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="HK33" s="1" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="HL33" t="n">
+        <v>6.17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="2">
@@ -22654,8 +22951,17 @@
       <c r="HH34" s="1" t="n">
         <v>35.4</v>
       </c>
-      <c r="HI34" t="n">
+      <c r="HI34" s="1" t="n">
         <v>31.7</v>
+      </c>
+      <c r="HJ34" s="1" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="HK34" s="1" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="HL34" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="2">
@@ -23309,8 +23615,17 @@
       <c r="HH35" s="1" t="n">
         <v>18.8</v>
       </c>
-      <c r="HI35" t="n">
+      <c r="HI35" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="HJ35" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HK35" s="1" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="HL35" t="n">
+        <v>16.2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="2">
@@ -23964,8 +24279,17 @@
       <c r="HH36" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="HI36" t="n">
+      <c r="HI36" s="1" t="n">
         <v>189.3</v>
+      </c>
+      <c r="HJ36" s="1" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HK36" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="HL36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="37" s="2">
@@ -24619,8 +24943,17 @@
       <c r="HH37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HI37" t="n">
+      <c r="HI37" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="HJ37" s="1" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="HK37" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="HL37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="2">
@@ -25274,8 +25607,17 @@
       <c r="HH38" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="HI38" t="n">
+      <c r="HI38" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="HJ38" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HK38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HL38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="39" s="2">
@@ -25929,8 +26271,17 @@
       <c r="HH39" s="1" t="n">
         <v>106.4</v>
       </c>
-      <c r="HI39" t="n">
+      <c r="HI39" s="1" t="n">
         <v>106.9</v>
+      </c>
+      <c r="HJ39" s="1" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="HK39" s="1" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="HL39" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="2">
@@ -26584,8 +26935,17 @@
       <c r="HH40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI40" t="n">
+      <c r="HI40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HJ40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HK40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="41" s="2">
@@ -27239,8 +27599,17 @@
       <c r="HH41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HI41" t="n">
+      <c r="HI41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HJ41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="42" s="2">
@@ -27894,7 +28263,16 @@
       <c r="HH42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HI42" t="n">
+      <c r="HI42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HJ42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28549,8 +28927,17 @@
       <c r="HH43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HI43" t="n">
+      <c r="HI43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HJ43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="44" s="2">
@@ -29204,8 +29591,17 @@
       <c r="HH44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="HI44" t="n">
+      <c r="HI44" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="HJ44" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="HK44" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="HL44" t="n">
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="2">
@@ -29859,8 +30255,17 @@
       <c r="HH45" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="HI45" t="n">
+      <c r="HI45" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="HJ45" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="HK45" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="HL45" t="n">
+        <v>156</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="2">
@@ -30514,8 +30919,17 @@
       <c r="HH46" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="HI46" t="n">
+      <c r="HI46" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="HJ46" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="HK46" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="HL46" t="n">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="2">
@@ -31169,8 +31583,17 @@
       <c r="HH47" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="HI47" t="n">
+      <c r="HI47" s="1" t="n">
         <v>67.90000000000001</v>
+      </c>
+      <c r="HJ47" s="1" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="HK47" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="HL47" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="2">
@@ -31824,8 +32247,17 @@
       <c r="HH48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HI48" t="n">
+      <c r="HI48" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HJ48" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HK48" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL48" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="2">
@@ -32479,8 +32911,17 @@
       <c r="HH49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HI49" t="n">
+      <c r="HI49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HJ49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HL49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="2">
@@ -33134,7 +33575,16 @@
       <c r="HH50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HI50" t="n">
+      <c r="HI50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HJ50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HK50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33789,8 +34239,17 @@
       <c r="HH51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HI51" t="n">
+      <c r="HI51" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HJ51" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HK51" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HL51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="2">
@@ -34444,8 +34903,17 @@
       <c r="HH52" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HI52" t="n">
+      <c r="HI52" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HJ52" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HK52" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HL52" t="n">
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="2">
@@ -35099,8 +35567,17 @@
       <c r="HH53" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HI53" t="n">
+      <c r="HI53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HJ53" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HK53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HL53" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="2">
@@ -35754,7 +36231,16 @@
       <c r="HH54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HI54" t="n">
+      <c r="HI54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -36409,8 +36895,17 @@
       <c r="HH55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HI55" t="n">
+      <c r="HI55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HJ55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="2">
@@ -37064,8 +37559,17 @@
       <c r="HH56" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HI56" t="n">
+      <c r="HI56" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="HJ56" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HK56" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="HL56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="2">
@@ -37719,8 +38223,17 @@
       <c r="HH57" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="HI57" t="n">
+      <c r="HI57" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="HJ57" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="HK57" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="HL57" t="n">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="2">
@@ -38374,8 +38887,17 @@
       <c r="HH58" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="HI58" t="n">
+      <c r="HI58" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="HJ58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="HK58" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="HL58" t="n">
+        <v>112</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="2">
@@ -39029,8 +39551,17 @@
       <c r="HH59" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="HI59" t="n">
+      <c r="HI59" s="1" t="n">
         <v>272</v>
+      </c>
+      <c r="HJ59" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="HK59" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="HL59" t="n">
+        <v>299</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="2">
@@ -39684,8 +40215,17 @@
       <c r="HH60" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="HI60" t="n">
+      <c r="HI60" s="1" t="n">
         <v>1.75</v>
+      </c>
+      <c r="HJ60" s="1" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="HK60" s="1" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="HL60" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="2">
@@ -40339,8 +40879,17 @@
       <c r="HH61" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HI61" t="n">
+      <c r="HI61" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="HJ61" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="HK61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HL61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="2">
@@ -40994,8 +41543,17 @@
       <c r="HH62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HI62" t="n">
+      <c r="HI62" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HJ62" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HK62" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HL62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="2">
@@ -41649,8 +42207,17 @@
       <c r="HH63" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HI63" t="n">
+      <c r="HI63" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HJ63" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HK63" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HL63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="2">
@@ -42304,8 +42871,17 @@
       <c r="HH64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HI64" t="n">
+      <c r="HI64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HJ64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HK64" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="2">
@@ -42959,7 +43535,16 @@
       <c r="HH65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HI65" t="n">
+      <c r="HI65" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HJ65" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HK65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HL65" t="n">
         <v>21</v>
       </c>
     </row>
@@ -43614,8 +44199,17 @@
       <c r="HH66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HI66" t="n">
+      <c r="HI66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HJ66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="67" s="2">
@@ -44269,8 +44863,17 @@
       <c r="HH67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI67" t="n">
+      <c r="HI67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HJ67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="68" s="2">
@@ -44924,8 +45527,17 @@
       <c r="HH68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HI68" t="n">
+      <c r="HI68" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HJ68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="2">
@@ -45579,8 +46191,17 @@
       <c r="HH69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HI69" t="n">
+      <c r="HI69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HJ69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HK69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="2">
@@ -46234,8 +46855,17 @@
       <c r="HH70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HI70" t="n">
+      <c r="HI70" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HJ70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK70" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="2">
@@ -46889,8 +47519,17 @@
       <c r="HH71" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="HI71" t="n">
+      <c r="HI71" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="HJ71" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK71" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HL71" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="2">
@@ -47544,8 +48183,17 @@
       <c r="HH72" s="1" t="n">
         <v>29.1</v>
       </c>
-      <c r="HI72" t="n">
+      <c r="HI72" s="1" t="n">
         <v>27.2</v>
+      </c>
+      <c r="HJ72" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="HK72" s="1" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="HL72" t="n">
+        <v>16.61</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="2">
@@ -48199,8 +48847,17 @@
       <c r="HH73" s="1" t="n">
         <v>18.19</v>
       </c>
-      <c r="HI73" t="n">
+      <c r="HI73" s="1" t="n">
         <v>20.92</v>
+      </c>
+      <c r="HJ73" s="1" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="HK73" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="HL73" t="n">
+        <v>14.24</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="2">
@@ -48854,8 +49511,17 @@
       <c r="HH74" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HI74" t="n">
+      <c r="HI74" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HJ74" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HK74" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HL74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="2">
@@ -49509,7 +50175,16 @@
       <c r="HH75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HI75" t="n">
+      <c r="HI75" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ75" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HK75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HL75" t="n">
         <v>45</v>
       </c>
     </row>
@@ -50164,8 +50839,17 @@
       <c r="HH76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HI76" t="n">
+      <c r="HI76" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HJ76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK76" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="77" s="2">
@@ -50819,7 +51503,16 @@
       <c r="HH77" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HI77" t="n">
+      <c r="HI77" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HJ77" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HK77" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HL77" t="n">
         <v>35</v>
       </c>
     </row>
@@ -51474,8 +52167,17 @@
       <c r="HH78" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="HI78" t="n">
+      <c r="HI78" s="1" t="n">
         <v>2.69</v>
+      </c>
+      <c r="HJ78" s="1" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="HK78" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="HL78" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="2">
@@ -52129,8 +52831,17 @@
       <c r="HH79" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="HI79" t="n">
+      <c r="HI79" s="1" t="n">
         <v>3.5</v>
+      </c>
+      <c r="HJ79" s="1" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="HK79" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="HL79" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="2">
@@ -52784,8 +53495,17 @@
       <c r="HH80" s="1" t="n">
         <v>37.8</v>
       </c>
-      <c r="HI80" t="n">
+      <c r="HI80" s="1" t="n">
         <v>34.3</v>
+      </c>
+      <c r="HJ80" s="1" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="HK80" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HL80" t="n">
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="2">
@@ -53439,8 +54159,17 @@
       <c r="HH81" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HI81" t="n">
+      <c r="HI81" s="1" t="n">
         <v>28.6</v>
+      </c>
+      <c r="HJ81" s="1" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="HK81" s="1" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="HL81" t="n">
+        <v>51.4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="82" s="2">
@@ -54094,8 +54823,17 @@
       <c r="HH82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="HI82" t="n">
+      <c r="HI82" s="1" t="n">
         <v>185.8</v>
+      </c>
+      <c r="HJ82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HK82" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HL82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="2">
@@ -54749,8 +55487,17 @@
       <c r="HH83" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="HI83" t="n">
+      <c r="HI83" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="HJ83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="HK83" s="1" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="HL83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="2">
@@ -55404,8 +56151,17 @@
       <c r="HH84" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="HI84" t="n">
+      <c r="HI84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="HJ84" s="1" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="HK84" s="1" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="HL84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="2">
@@ -56059,8 +56815,17 @@
       <c r="HH85" s="1" t="n">
         <v>109.9</v>
       </c>
-      <c r="HI85" t="n">
+      <c r="HI85" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HJ85" s="1" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="HK85" s="1" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="HL85" t="n">
+        <v>119.3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="2">
@@ -56714,7 +57479,16 @@
       <c r="HH86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI86" t="n">
+      <c r="HI86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ86" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HL86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -57369,8 +58143,17 @@
       <c r="HH87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HI87" t="n">
+      <c r="HI87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HJ87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="2">
@@ -58024,8 +58807,17 @@
       <c r="HH88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HI88" t="n">
+      <c r="HI88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HJ88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="89" s="2">
@@ -58679,8 +59471,17 @@
       <c r="HH89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HI89" t="n">
+      <c r="HI89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HJ89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HK89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="90" s="2">
@@ -59334,8 +60135,17 @@
       <c r="HH90" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="HI90" t="n">
+      <c r="HI90" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="HJ90" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="HK90" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="HL90" t="n">
+        <v>104</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="91" s="2">
@@ -59989,8 +60799,17 @@
       <c r="HH91" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="HI91" t="n">
+      <c r="HI91" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="HJ91" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="HK91" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="HL91" t="n">
+        <v>189</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="2">
@@ -60644,8 +61463,17 @@
       <c r="HH92" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="HI92" t="n">
+      <c r="HI92" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="HJ92" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="HK92" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="HL92" t="n">
+        <v>233</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="2">
@@ -61299,8 +62127,17 @@
       <c r="HH93" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HI93" t="n">
+      <c r="HI93" s="1" t="n">
         <v>72.8</v>
+      </c>
+      <c r="HJ93" s="1" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HK93" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="HL93" t="n">
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="2">
@@ -61954,7 +62791,16 @@
       <c r="HH94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HI94" t="n">
+      <c r="HI94" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ94" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HK94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HL94" t="n">
         <v>45</v>
       </c>
     </row>
@@ -62609,8 +63455,17 @@
       <c r="HH95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI95" t="n">
+      <c r="HI95" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HJ95" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HK95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HL95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="2">
@@ -63264,8 +64119,17 @@
       <c r="HH96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI96" t="n">
+      <c r="HI96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HJ96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HK96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="2">
@@ -63919,8 +64783,17 @@
       <c r="HH97" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HI97" t="n">
+      <c r="HI97" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HJ97" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HK97" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HL97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="2">
@@ -64574,8 +65447,17 @@
       <c r="HH98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HI98" t="n">
+      <c r="HI98" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HJ98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HK98" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="99" s="2">
@@ -65229,8 +66111,17 @@
       <c r="HH99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HI99" t="n">
+      <c r="HI99" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HJ99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HK99" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HL99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="2">
@@ -65884,8 +66775,17 @@
       <c r="HH100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HI100" t="n">
+      <c r="HI100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HJ100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="101" s="2">
@@ -66539,8 +67439,17 @@
       <c r="HH101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HI101" t="n">
+      <c r="HI101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HJ101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="102" s="2">
@@ -67194,8 +68103,17 @@
       <c r="HH102" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HI102" t="n">
+      <c r="HI102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HJ102" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HK102" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="HL102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HL102"/>
+  <dimension ref="A1:HM102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1048,11 +1048,14 @@
       <c r="HK1" s="1" t="n">
         <v>10218</v>
       </c>
-      <c r="HL1" t="n">
+      <c r="HL1" s="1" t="n">
         <v>10233</v>
       </c>
+      <c r="HM1" t="n">
+        <v>10244</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1712,11 +1715,14 @@
       <c r="HK2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HL2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HM2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2376,11 +2382,14 @@
       <c r="HK3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HL3" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HM3" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3040,11 +3049,14 @@
       <c r="HK4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HL4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HM4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3704,11 +3716,14 @@
       <c r="HK5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL5" t="n">
+      <c r="HL5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HM5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4368,11 +4383,14 @@
       <c r="HK6" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HL6" t="n">
+      <c r="HL6" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HM6" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5032,11 +5050,14 @@
       <c r="HK7" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HL7" t="n">
+      <c r="HL7" s="1" t="n">
         <v>111</v>
       </c>
+      <c r="HM7" t="n">
+        <v>61</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5696,11 +5717,14 @@
       <c r="HK8" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HL8" t="n">
+      <c r="HL8" s="1" t="n">
         <v>-66</v>
       </c>
+      <c r="HM8" t="n">
+        <v>-12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6360,11 +6384,14 @@
       <c r="HK9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL9" t="n">
+      <c r="HL9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HM9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7024,11 +7051,14 @@
       <c r="HK10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HL10" t="n">
+      <c r="HL10" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HM10" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7688,11 +7718,14 @@
       <c r="HK11" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="HL11" t="n">
+      <c r="HL11" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="HM11" t="n">
+        <v>169</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8352,11 +8385,14 @@
       <c r="HK12" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HL12" t="n">
+      <c r="HL12" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="HM12" t="n">
+        <v>149</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9016,11 +9052,14 @@
       <c r="HK13" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="HL13" t="n">
+      <c r="HL13" s="1" t="n">
         <v>272</v>
       </c>
+      <c r="HM13" t="n">
+        <v>318</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9680,11 +9719,14 @@
       <c r="HK14" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="HL14" t="n">
+      <c r="HL14" s="1" t="n">
         <v>1.31</v>
       </c>
+      <c r="HM14" t="n">
+        <v>1.13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10344,11 +10386,14 @@
       <c r="HK15" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HL15" t="n">
+      <c r="HL15" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="HM15" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11008,11 +11053,14 @@
       <c r="HK16" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HL16" t="n">
+      <c r="HL16" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HM16" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11672,11 +11720,14 @@
       <c r="HK17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HL17" t="n">
+      <c r="HL17" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="HM17" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -12336,11 +12387,14 @@
       <c r="HK18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HL18" t="n">
+      <c r="HL18" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HM18" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13000,11 +13054,14 @@
       <c r="HK19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL19" t="n">
+      <c r="HL19" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HM19" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13664,11 +13721,14 @@
       <c r="HK20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL20" t="n">
+      <c r="HL20" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HM20" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -14328,11 +14388,14 @@
       <c r="HK21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL21" t="n">
+      <c r="HL21" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HM21" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14992,11 +15055,14 @@
       <c r="HK22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL22" t="n">
+      <c r="HL22" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HM22" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15656,11 +15722,14 @@
       <c r="HK23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL23" t="n">
+      <c r="HL23" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HM23" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -16320,11 +16389,14 @@
       <c r="HK24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HL24" t="n">
+      <c r="HL24" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HM24" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16984,11 +17056,14 @@
       <c r="HK25" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="HL25" t="n">
+      <c r="HL25" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HM25" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -17648,11 +17723,14 @@
       <c r="HK26" s="1" t="n">
         <v>40.5</v>
       </c>
-      <c r="HL26" t="n">
+      <c r="HL26" s="1" t="n">
         <v>45.33</v>
       </c>
+      <c r="HM26" t="n">
+        <v>45.43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -18312,11 +18390,14 @@
       <c r="HK27" s="1" t="n">
         <v>19.06</v>
       </c>
-      <c r="HL27" t="n">
+      <c r="HL27" s="1" t="n">
         <v>18.13</v>
       </c>
+      <c r="HM27" t="n">
+        <v>22.71</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18976,11 +19057,14 @@
       <c r="HK28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HL28" t="n">
+      <c r="HL28" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HM28" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -19640,11 +19724,14 @@
       <c r="HK29" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HL29" t="n">
+      <c r="HL29" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HM29" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -20304,11 +20391,14 @@
       <c r="HK30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HL30" t="n">
+      <c r="HL30" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HM30" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20968,11 +21058,14 @@
       <c r="HK31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HL31" t="n">
+      <c r="HL31" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HM31" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -21632,11 +21725,14 @@
       <c r="HK32" s="1" t="n">
         <v>2.71</v>
       </c>
-      <c r="HL32" t="n">
+      <c r="HL32" s="1" t="n">
         <v>2.47</v>
       </c>
+      <c r="HM32" t="n">
+        <v>3.07</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -22296,11 +22392,14 @@
       <c r="HK33" s="1" t="n">
         <v>5.75</v>
       </c>
-      <c r="HL33" t="n">
+      <c r="HL33" s="1" t="n">
         <v>6.17</v>
       </c>
+      <c r="HM33" t="n">
+        <v>6.14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -22960,11 +23059,14 @@
       <c r="HK34" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="HL34" t="n">
+      <c r="HL34" s="1" t="n">
         <v>29.7</v>
       </c>
+      <c r="HM34" t="n">
+        <v>23.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -23624,11 +23726,14 @@
       <c r="HK35" s="1" t="n">
         <v>17.4</v>
       </c>
-      <c r="HL35" t="n">
+      <c r="HL35" s="1" t="n">
         <v>16.2</v>
       </c>
+      <c r="HM35" t="n">
+        <v>16.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -24288,11 +24393,14 @@
       <c r="HK36" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HL36" t="n">
+      <c r="HL36" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="HM36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -24952,11 +25060,14 @@
       <c r="HK37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="HL37" t="n">
+      <c r="HL37" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="HM37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -25616,11 +25727,14 @@
       <c r="HK38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HL38" t="n">
+      <c r="HL38" s="1" t="n">
         <v>25.41</v>
       </c>
+      <c r="HM38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -26280,11 +26394,14 @@
       <c r="HK39" s="1" t="n">
         <v>104.5</v>
       </c>
-      <c r="HL39" t="n">
+      <c r="HL39" s="1" t="n">
         <v>83.2</v>
       </c>
+      <c r="HM39" t="n">
+        <v>93.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -26944,11 +27061,14 @@
       <c r="HK40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL40" t="n">
+      <c r="HL40" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HM40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -27608,11 +27728,14 @@
       <c r="HK41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL41" t="n">
+      <c r="HL41" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HM41" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -28272,11 +28395,14 @@
       <c r="HK42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL42" t="n">
+      <c r="HL42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HM42" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -28936,11 +29062,14 @@
       <c r="HK43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL43" t="n">
+      <c r="HL43" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HM43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -29600,11 +29729,14 @@
       <c r="HK44" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HL44" t="n">
+      <c r="HL44" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="HM44" t="n">
+        <v>115</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -30264,11 +30396,14 @@
       <c r="HK45" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="HL45" t="n">
+      <c r="HL45" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="HM45" t="n">
+        <v>198</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -30928,11 +31063,14 @@
       <c r="HK46" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="HL46" t="n">
+      <c r="HL46" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HM46" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -31592,11 +31730,14 @@
       <c r="HK47" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HL47" t="n">
+      <c r="HL47" s="1" t="n">
         <v>68.8</v>
       </c>
+      <c r="HM47" t="n">
+        <v>69.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -32256,11 +32397,14 @@
       <c r="HK48" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HL48" t="n">
+      <c r="HL48" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HM48" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -32920,11 +33064,14 @@
       <c r="HK49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HL49" t="n">
+      <c r="HL49" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HM49" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -33584,11 +33731,14 @@
       <c r="HK50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL50" t="n">
+      <c r="HL50" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HM50" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -34248,11 +34398,14 @@
       <c r="HK51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HL51" t="n">
+      <c r="HL51" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HM51" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -34912,11 +35065,14 @@
       <c r="HK52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HL52" t="n">
+      <c r="HL52" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HM52" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -35576,11 +35732,14 @@
       <c r="HK53" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HL53" t="n">
+      <c r="HL53" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HM53" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -36240,11 +36399,14 @@
       <c r="HK54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL54" t="n">
+      <c r="HL54" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HM54" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -36904,11 +37066,14 @@
       <c r="HK55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL55" t="n">
+      <c r="HL55" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HM55" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -37568,11 +37733,14 @@
       <c r="HK56" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="HL56" t="n">
+      <c r="HL56" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HM56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -38232,11 +38400,14 @@
       <c r="HK57" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="HL57" t="n">
+      <c r="HL57" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HM57" t="n">
+        <v>192</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -38896,11 +39067,14 @@
       <c r="HK58" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HL58" t="n">
+      <c r="HL58" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="HM58" t="n">
+        <v>139</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -39560,11 +39734,14 @@
       <c r="HK59" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="HL59" t="n">
+      <c r="HL59" s="1" t="n">
         <v>299</v>
       </c>
+      <c r="HM59" t="n">
+        <v>331</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -40224,11 +40401,14 @@
       <c r="HK60" s="1" t="n">
         <v>1.72</v>
       </c>
-      <c r="HL60" t="n">
+      <c r="HL60" s="1" t="n">
         <v>1.67</v>
       </c>
+      <c r="HM60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -40888,11 +41068,14 @@
       <c r="HK61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HL61" t="n">
+      <c r="HL61" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="HM61" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -41552,11 +41735,14 @@
       <c r="HK62" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HL62" t="n">
+      <c r="HL62" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HM62" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -42216,11 +42402,14 @@
       <c r="HK63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HL63" t="n">
+      <c r="HL63" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HM63" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -42880,11 +43069,14 @@
       <c r="HK64" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL64" t="n">
+      <c r="HL64" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HM64" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -43544,11 +43736,14 @@
       <c r="HK65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HL65" t="n">
+      <c r="HL65" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HM65" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -44208,11 +44403,14 @@
       <c r="HK66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL66" t="n">
+      <c r="HL66" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="HM66" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -44872,11 +45070,14 @@
       <c r="HK67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL67" t="n">
+      <c r="HL67" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HM67" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -45536,11 +45737,14 @@
       <c r="HK68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HL68" t="n">
+      <c r="HL68" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HM68" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -46200,11 +46404,14 @@
       <c r="HK69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HL69" t="n">
+      <c r="HL69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HM69" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -46864,11 +47071,14 @@
       <c r="HK70" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL70" t="n">
+      <c r="HL70" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HM70" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -47528,11 +47738,14 @@
       <c r="HK71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HL71" t="n">
+      <c r="HL71" s="1" t="n">
         <v>85.7</v>
       </c>
+      <c r="HM71" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -48192,11 +48405,14 @@
       <c r="HK72" s="1" t="n">
         <v>56.6</v>
       </c>
-      <c r="HL72" t="n">
+      <c r="HL72" s="1" t="n">
         <v>16.61</v>
       </c>
+      <c r="HM72" t="n">
+        <v>33.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -48856,11 +49072,14 @@
       <c r="HK73" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="HL73" t="n">
+      <c r="HL73" s="1" t="n">
         <v>14.24</v>
       </c>
+      <c r="HM73" t="n">
+        <v>30.09</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -49520,11 +49739,14 @@
       <c r="HK74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HL74" t="n">
+      <c r="HL74" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HM74" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -50184,11 +50406,14 @@
       <c r="HK75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HL75" t="n">
+      <c r="HL75" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HM75" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -50848,11 +51073,14 @@
       <c r="HK76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HL76" t="n">
+      <c r="HL76" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HM76" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -51512,11 +51740,14 @@
       <c r="HK77" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HL77" t="n">
+      <c r="HL77" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="HM77" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -52176,11 +52407,14 @@
       <c r="HK78" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="HL78" t="n">
+      <c r="HL78" s="1" t="n">
         <v>1.67</v>
       </c>
+      <c r="HM78" t="n">
+        <v>3.09</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -52840,11 +53074,14 @@
       <c r="HK79" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="HL79" t="n">
+      <c r="HL79" s="1" t="n">
         <v>1.94</v>
       </c>
+      <c r="HM79" t="n">
+        <v>3.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -53504,11 +53741,14 @@
       <c r="HK80" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HL80" t="n">
+      <c r="HL80" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="HM80" t="n">
+        <v>32.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -54168,11 +54408,14 @@
       <c r="HK81" s="1" t="n">
         <v>16.1</v>
       </c>
-      <c r="HL81" t="n">
+      <c r="HL81" s="1" t="n">
         <v>51.4</v>
       </c>
+      <c r="HM81" t="n">
+        <v>29.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -54832,11 +55075,14 @@
       <c r="HK82" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="HL82" t="n">
+      <c r="HL82" s="1" t="n">
         <v>187.8</v>
       </c>
+      <c r="HM82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -55496,11 +55742,14 @@
       <c r="HK83" s="1" t="n">
         <v>88.7</v>
       </c>
-      <c r="HL83" t="n">
+      <c r="HL83" s="1" t="n">
         <v>87.3</v>
       </c>
+      <c r="HM83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -56160,11 +56409,14 @@
       <c r="HK84" s="1" t="n">
         <v>27.24</v>
       </c>
-      <c r="HL84" t="n">
+      <c r="HL84" s="1" t="n">
         <v>26.16</v>
       </c>
+      <c r="HM84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -56824,11 +57076,14 @@
       <c r="HK85" s="1" t="n">
         <v>135.4</v>
       </c>
-      <c r="HL85" t="n">
+      <c r="HL85" s="1" t="n">
         <v>119.3</v>
       </c>
+      <c r="HM85" t="n">
+        <v>73.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -57488,11 +57743,14 @@
       <c r="HK86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HL86" t="n">
+      <c r="HL86" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HM86" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -58152,11 +58410,14 @@
       <c r="HK87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL87" t="n">
+      <c r="HL87" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HM87" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -58816,11 +59077,14 @@
       <c r="HK88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HL88" t="n">
+      <c r="HL88" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HM88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -59480,11 +59744,14 @@
       <c r="HK89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HL89" t="n">
+      <c r="HL89" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HM89" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -60144,11 +60411,14 @@
       <c r="HK90" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="HL90" t="n">
+      <c r="HL90" s="1" t="n">
         <v>104</v>
       </c>
+      <c r="HM90" t="n">
+        <v>151</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -60808,11 +61078,14 @@
       <c r="HK91" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="HL91" t="n">
+      <c r="HL91" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="HM91" t="n">
+        <v>183</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -61472,11 +61745,14 @@
       <c r="HK92" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="HL92" t="n">
+      <c r="HL92" s="1" t="n">
         <v>233</v>
       </c>
+      <c r="HM92" t="n">
+        <v>216</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -62136,11 +62412,14 @@
       <c r="HK93" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HL93" t="n">
+      <c r="HL93" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
+      <c r="HM93" t="n">
+        <v>65.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -62800,11 +63079,14 @@
       <c r="HK94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HL94" t="n">
+      <c r="HL94" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HM94" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -63464,11 +63746,14 @@
       <c r="HK95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HL95" t="n">
+      <c r="HL95" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HM95" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -64128,11 +64413,14 @@
       <c r="HK96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL96" t="n">
+      <c r="HL96" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HM96" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -64792,11 +65080,14 @@
       <c r="HK97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HL97" t="n">
+      <c r="HL97" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HM97" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -65456,11 +65747,14 @@
       <c r="HK98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HL98" t="n">
+      <c r="HL98" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HM98" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -66120,11 +66414,14 @@
       <c r="HK99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HL99" t="n">
+      <c r="HL99" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="HM99" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -66784,11 +67081,14 @@
       <c r="HK100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HL100" t="n">
+      <c r="HL100" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HM100" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -67448,11 +67748,14 @@
       <c r="HK101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HL101" t="n">
+      <c r="HL101" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HM101" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -68112,13 +68415,16 @@
       <c r="HK102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="HL102" t="n">
+      <c r="HL102" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="HM102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HP102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1051,11 +1051,20 @@
       <c r="HL1" s="1" t="n">
         <v>10233</v>
       </c>
-      <c r="HM1" t="n">
+      <c r="HM1" s="1" t="n">
         <v>10244</v>
       </c>
+      <c r="HN1" s="1" t="n">
+        <v>10249</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>10258</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>10263</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1718,11 +1727,20 @@
       <c r="HL2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HM2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HN2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HO2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2385,11 +2403,20 @@
       <c r="HL3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HM3" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HN3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3052,11 +3079,20 @@
       <c r="HL4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HM4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3719,11 +3755,20 @@
       <c r="HL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HM5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4386,11 +4431,20 @@
       <c r="HL6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HM6" t="n">
+      <c r="HM6" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HN6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO6" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5053,11 +5107,20 @@
       <c r="HL7" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="HM7" t="n">
+      <c r="HM7" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="HN7" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HO7" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5720,11 +5783,20 @@
       <c r="HL8" s="1" t="n">
         <v>-66</v>
       </c>
-      <c r="HM8" t="n">
+      <c r="HM8" s="1" t="n">
         <v>-12</v>
       </c>
+      <c r="HN8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>-56</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6387,11 +6459,20 @@
       <c r="HL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM9" t="n">
+      <c r="HM9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HN9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7054,11 +7135,20 @@
       <c r="HL10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HM10" t="n">
+      <c r="HM10" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HO10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7721,11 +7811,20 @@
       <c r="HL11" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="HM11" t="n">
+      <c r="HM11" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="HN11" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="HO11" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>161</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8388,11 +8487,20 @@
       <c r="HL12" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="HM12" t="n">
+      <c r="HM12" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="HN12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="HO12" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>153</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9055,11 +9163,20 @@
       <c r="HL13" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="HM13" t="n">
+      <c r="HM13" s="1" t="n">
         <v>318</v>
       </c>
+      <c r="HN13" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="HO13" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>314</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9722,11 +9839,20 @@
       <c r="HL14" s="1" t="n">
         <v>1.31</v>
       </c>
-      <c r="HM14" t="n">
+      <c r="HM14" s="1" t="n">
         <v>1.13</v>
       </c>
+      <c r="HN14" s="1" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="HO14" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10389,11 +10515,20 @@
       <c r="HL15" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HM15" t="n">
+      <c r="HM15" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="HN15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="HO15" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11056,11 +11191,20 @@
       <c r="HL16" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HM16" t="n">
+      <c r="HM16" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HN16" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="HO16" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11723,11 +11867,20 @@
       <c r="HL17" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HM17" t="n">
+      <c r="HM17" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="HN17" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HO17" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -12390,11 +12543,20 @@
       <c r="HL18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HM18" t="n">
+      <c r="HM18" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HN18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13057,11 +13219,20 @@
       <c r="HL19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HM19" t="n">
+      <c r="HM19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HN19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13724,11 +13895,20 @@
       <c r="HL20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HM20" t="n">
+      <c r="HM20" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HN20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -14391,11 +14571,20 @@
       <c r="HL21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM21" t="n">
+      <c r="HM21" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15058,11 +15247,20 @@
       <c r="HL22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HM22" t="n">
+      <c r="HM22" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HN22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HO22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15725,11 +15923,20 @@
       <c r="HL23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HM23" t="n">
+      <c r="HM23" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HN23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -16392,11 +16599,20 @@
       <c r="HL24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HM24" t="n">
+      <c r="HM24" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HN24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HO24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -17059,11 +17275,20 @@
       <c r="HL25" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HM25" t="n">
+      <c r="HM25" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HN25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HO25" s="1" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -17726,11 +17951,20 @@
       <c r="HL26" s="1" t="n">
         <v>45.33</v>
       </c>
-      <c r="HM26" t="n">
+      <c r="HM26" s="1" t="n">
         <v>45.43</v>
       </c>
+      <c r="HN26" s="1" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="HO26" s="1" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>52.33</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -18393,11 +18627,20 @@
       <c r="HL27" s="1" t="n">
         <v>18.13</v>
       </c>
-      <c r="HM27" t="n">
+      <c r="HM27" s="1" t="n">
         <v>22.71</v>
       </c>
+      <c r="HN27" s="1" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="HO27" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>22.43</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -19060,11 +19303,20 @@
       <c r="HL28" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HM28" t="n">
+      <c r="HM28" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HN28" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO28" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP28" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -19727,11 +19979,20 @@
       <c r="HL29" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HM29" t="n">
+      <c r="HM29" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HN29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO29" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HP29" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -20394,11 +20655,20 @@
       <c r="HL30" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HM30" t="n">
+      <c r="HM30" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HN30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HO30" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HP30" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -21061,11 +21331,20 @@
       <c r="HL31" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HM31" t="n">
+      <c r="HM31" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="HN31" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO31" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HP31" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -21728,11 +22007,20 @@
       <c r="HL32" s="1" t="n">
         <v>2.47</v>
       </c>
-      <c r="HM32" t="n">
+      <c r="HM32" s="1" t="n">
         <v>3.07</v>
       </c>
+      <c r="HN32" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="HO32" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HP32" t="n">
+        <v>2.93</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -22395,11 +22683,20 @@
       <c r="HL33" s="1" t="n">
         <v>6.17</v>
       </c>
-      <c r="HM33" t="n">
+      <c r="HM33" s="1" t="n">
         <v>6.14</v>
       </c>
+      <c r="HN33" s="1" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="HO33" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="HP33" t="n">
+        <v>6.83</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -23062,11 +23359,20 @@
       <c r="HL34" s="1" t="n">
         <v>29.7</v>
       </c>
-      <c r="HM34" t="n">
+      <c r="HM34" s="1" t="n">
         <v>23.3</v>
       </c>
+      <c r="HN34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HO34" s="1" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HP34" t="n">
+        <v>26.8</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -23729,11 +24035,20 @@
       <c r="HL35" s="1" t="n">
         <v>16.2</v>
       </c>
-      <c r="HM35" t="n">
+      <c r="HM35" s="1" t="n">
         <v>16.3</v>
       </c>
+      <c r="HN35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HO35" s="1" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="HP35" t="n">
+        <v>14.6</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -24396,11 +24711,20 @@
       <c r="HL36" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HM36" t="n">
+      <c r="HM36" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="HN36" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HO36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="HP36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -25063,11 +25387,20 @@
       <c r="HL37" s="1" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="HM37" t="n">
+      <c r="HM37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HN37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HO37" s="1" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="HP37" t="n">
+        <v>88.3</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -25730,11 +26063,20 @@
       <c r="HL38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HM38" t="n">
+      <c r="HM38" s="1" t="n">
         <v>25.74</v>
       </c>
+      <c r="HN38" s="1" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="HO38" s="1" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="HP38" t="n">
+        <v>26.74</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -26397,11 +26739,20 @@
       <c r="HL39" s="1" t="n">
         <v>83.2</v>
       </c>
-      <c r="HM39" t="n">
+      <c r="HM39" s="1" t="n">
         <v>93.8</v>
       </c>
+      <c r="HN39" s="1" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="HO39" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="HP39" t="n">
+        <v>107.7</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -27064,11 +27415,20 @@
       <c r="HL40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM40" t="n">
+      <c r="HM40" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HN40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HO40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP40" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -27731,11 +28091,20 @@
       <c r="HL41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM41" t="n">
+      <c r="HM41" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HN41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -28398,11 +28767,20 @@
       <c r="HL42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HM42" t="n">
+      <c r="HM42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP42" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -29065,11 +29443,20 @@
       <c r="HL43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM43" t="n">
+      <c r="HM43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HN43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -29732,11 +30119,20 @@
       <c r="HL44" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="HM44" t="n">
+      <c r="HM44" s="1" t="n">
         <v>115</v>
       </c>
+      <c r="HN44" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="HO44" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>122</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -30399,11 +30795,20 @@
       <c r="HL45" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="HM45" t="n">
+      <c r="HM45" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="HN45" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="HO45" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>192</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -31066,11 +31471,20 @@
       <c r="HL46" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HM46" t="n">
+      <c r="HM46" s="1" t="n">
         <v>220</v>
       </c>
+      <c r="HN46" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HO46" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="HP46" t="n">
+        <v>214</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -31733,11 +32147,20 @@
       <c r="HL47" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="HM47" t="n">
+      <c r="HM47" s="1" t="n">
         <v>69.2</v>
       </c>
+      <c r="HN47" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HO47" s="1" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="HP47" t="n">
+        <v>68.2</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -32400,11 +32823,20 @@
       <c r="HL48" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HM48" t="n">
+      <c r="HM48" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HN48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO48" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HP48" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -33067,11 +33499,20 @@
       <c r="HL49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HM49" t="n">
+      <c r="HM49" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HN49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HP49" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -33734,11 +34175,20 @@
       <c r="HL50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HM50" t="n">
+      <c r="HM50" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HN50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -34401,11 +34851,20 @@
       <c r="HL51" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HM51" t="n">
+      <c r="HM51" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="HN51" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO51" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HP51" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -35068,11 +35527,20 @@
       <c r="HL52" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HM52" t="n">
+      <c r="HM52" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HN52" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HO52" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HP52" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -35735,11 +36203,20 @@
       <c r="HL53" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HM53" t="n">
+      <c r="HM53" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="HN53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HO53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HP53" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -36402,11 +36879,20 @@
       <c r="HL54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HM54" t="n">
+      <c r="HM54" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HN54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP54" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -37069,11 +37555,20 @@
       <c r="HL55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM55" t="n">
+      <c r="HM55" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP55" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -37736,11 +38231,20 @@
       <c r="HL56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HM56" t="n">
+      <c r="HM56" s="1" t="n">
         <v>85.7</v>
       </c>
+      <c r="HN56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HO56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HP56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -38403,11 +38907,20 @@
       <c r="HL57" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HM57" t="n">
+      <c r="HM57" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="HN57" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="HO57" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="HP57" t="n">
+        <v>198</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -39070,11 +39583,20 @@
       <c r="HL58" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="HM58" t="n">
+      <c r="HM58" s="1" t="n">
         <v>139</v>
       </c>
+      <c r="HN58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HO58" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="HP58" t="n">
+        <v>124</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -39737,11 +40259,20 @@
       <c r="HL59" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="HM59" t="n">
+      <c r="HM59" s="1" t="n">
         <v>331</v>
       </c>
+      <c r="HN59" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="HO59" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="HP59" t="n">
+        <v>322</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -40404,11 +40935,20 @@
       <c r="HL60" s="1" t="n">
         <v>1.67</v>
       </c>
-      <c r="HM60" t="n">
+      <c r="HM60" s="1" t="n">
         <v>1.38</v>
       </c>
+      <c r="HN60" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="HO60" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HP60" t="n">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -41071,11 +41611,20 @@
       <c r="HL61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="HM61" t="n">
+      <c r="HM61" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="HN61" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HO61" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="HP61" t="n">
+        <v>84</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -41738,11 +42287,20 @@
       <c r="HL62" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HM62" t="n">
+      <c r="HM62" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="HN62" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HO62" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="HP62" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -42405,11 +42963,20 @@
       <c r="HL63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HM63" t="n">
+      <c r="HM63" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HN63" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO63" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HP63" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -43072,11 +43639,20 @@
       <c r="HL64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HM64" t="n">
+      <c r="HM64" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="HN64" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HP64" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -43739,11 +44315,20 @@
       <c r="HL65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HM65" t="n">
+      <c r="HM65" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HN65" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HO65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HP65" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -44406,11 +44991,20 @@
       <c r="HL66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HM66" t="n">
+      <c r="HM66" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HN66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP66" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -45073,11 +45667,20 @@
       <c r="HL67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM67" t="n">
+      <c r="HM67" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HN67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP67" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -45740,11 +46343,20 @@
       <c r="HL68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HM68" t="n">
+      <c r="HM68" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HN68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP68" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -46407,11 +47019,20 @@
       <c r="HL69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HM69" t="n">
+      <c r="HM69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HN69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -47074,11 +47695,20 @@
       <c r="HL70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HM70" t="n">
+      <c r="HM70" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HN70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HO70" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP70" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -47741,11 +48371,20 @@
       <c r="HL71" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="HM71" t="n">
+      <c r="HM71" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HN71" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HO71" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="HP71" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -48408,11 +49047,20 @@
       <c r="HL72" s="1" t="n">
         <v>16.61</v>
       </c>
-      <c r="HM72" t="n">
+      <c r="HM72" s="1" t="n">
         <v>33.1</v>
       </c>
+      <c r="HN72" s="1" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="HO72" s="1" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="HP72" t="n">
+        <v>20.12</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -49075,11 +49723,20 @@
       <c r="HL73" s="1" t="n">
         <v>14.24</v>
       </c>
-      <c r="HM73" t="n">
+      <c r="HM73" s="1" t="n">
         <v>30.09</v>
       </c>
+      <c r="HN73" s="1" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="HO73" s="1" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="HP73" t="n">
+        <v>16.1</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -49742,11 +50399,20 @@
       <c r="HL74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HM74" t="n">
+      <c r="HM74" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HN74" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HP74" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -50409,11 +51075,20 @@
       <c r="HL75" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HM75" t="n">
+      <c r="HM75" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="HN75" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HO75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HP75" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -51076,11 +51751,20 @@
       <c r="HL76" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HM76" t="n">
+      <c r="HM76" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HN76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO76" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -51743,11 +52427,20 @@
       <c r="HL77" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HM77" t="n">
+      <c r="HM77" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HN77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HO77" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP77" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -52410,11 +53103,20 @@
       <c r="HL78" s="1" t="n">
         <v>1.67</v>
       </c>
-      <c r="HM78" t="n">
+      <c r="HM78" s="1" t="n">
         <v>3.09</v>
       </c>
+      <c r="HN78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO78" s="1" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="HP78" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -53077,11 +53779,20 @@
       <c r="HL79" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="HM79" t="n">
+      <c r="HM79" s="1" t="n">
         <v>3.4</v>
       </c>
+      <c r="HN79" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="HO79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP79" t="n">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -53744,11 +54455,20 @@
       <c r="HL80" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HM80" t="n">
+      <c r="HM80" s="1" t="n">
         <v>32.4</v>
       </c>
+      <c r="HN80" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HO80" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HP80" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -54411,11 +55131,20 @@
       <c r="HL81" s="1" t="n">
         <v>51.4</v>
       </c>
-      <c r="HM81" t="n">
+      <c r="HM81" s="1" t="n">
         <v>29.4</v>
       </c>
+      <c r="HN81" s="1" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="HO81" s="1" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="HP81" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -55078,11 +55807,20 @@
       <c r="HL82" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="HM82" t="n">
+      <c r="HM82" s="1" t="n">
         <v>187.3</v>
       </c>
+      <c r="HN82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HO82" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="HP82" t="n">
+        <v>186.2</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -55745,11 +56483,20 @@
       <c r="HL83" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="HM83" t="n">
+      <c r="HM83" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HN83" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="HO83" s="1" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HP83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -56412,11 +57159,20 @@
       <c r="HL84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="HM84" t="n">
+      <c r="HM84" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="HN84" s="1" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="HO84" s="1" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="HP84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -57079,11 +57835,20 @@
       <c r="HL85" s="1" t="n">
         <v>119.3</v>
       </c>
-      <c r="HM85" t="n">
+      <c r="HM85" s="1" t="n">
         <v>73.8</v>
       </c>
+      <c r="HN85" s="1" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="HO85" s="1" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="HP85" t="n">
+        <v>94.3</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -57746,11 +58511,20 @@
       <c r="HL86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HM86" t="n">
+      <c r="HM86" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HN86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HO86" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -58413,11 +59187,20 @@
       <c r="HL87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HM87" t="n">
+      <c r="HM87" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP87" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -59080,11 +59863,20 @@
       <c r="HL88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HM88" t="n">
+      <c r="HM88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HN88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP88" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -59747,11 +60539,20 @@
       <c r="HL89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM89" t="n">
+      <c r="HM89" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HN89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP89" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -60414,11 +61215,20 @@
       <c r="HL90" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HM90" t="n">
+      <c r="HM90" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="HN90" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="HO90" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="HP90" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -61081,11 +61891,20 @@
       <c r="HL91" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="HM91" t="n">
+      <c r="HM91" s="1" t="n">
         <v>183</v>
       </c>
+      <c r="HN91" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="HO91" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="HP91" t="n">
+        <v>200</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -61748,11 +62567,20 @@
       <c r="HL92" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="HM92" t="n">
+      <c r="HM92" s="1" t="n">
         <v>216</v>
       </c>
+      <c r="HN92" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="HO92" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="HP92" t="n">
+        <v>248</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -62415,11 +63243,20 @@
       <c r="HL93" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="HM93" t="n">
+      <c r="HM93" s="1" t="n">
         <v>65.3</v>
       </c>
+      <c r="HN93" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="HO93" s="1" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="HP93" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -63082,11 +63919,20 @@
       <c r="HL94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HM94" t="n">
+      <c r="HM94" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="HN94" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HO94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HP94" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -63749,11 +64595,20 @@
       <c r="HL95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HM95" t="n">
+      <c r="HM95" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HN95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HO95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP95" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -64416,11 +65271,20 @@
       <c r="HL96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HM96" t="n">
+      <c r="HM96" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HN96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP96" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -65083,11 +65947,20 @@
       <c r="HL97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HM97" t="n">
+      <c r="HM97" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HN97" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HP97" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -65750,11 +66623,20 @@
       <c r="HL98" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HM98" t="n">
+      <c r="HM98" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HN98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HO98" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HP98" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -66417,11 +67299,20 @@
       <c r="HL99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HM99" t="n">
+      <c r="HM99" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HN99" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HO99" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HP99" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -67084,11 +67975,20 @@
       <c r="HL100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HM100" t="n">
+      <c r="HM100" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HN100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -67751,11 +68651,20 @@
       <c r="HL101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HM101" t="n">
+      <c r="HM101" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HN101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HO101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP101" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -68418,13 +69327,22 @@
       <c r="HL102" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HM102" t="n">
+      <c r="HM102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HN102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="HO102" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HP102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Collingwood_stats.xlsx
+++ b/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HC71" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="HE100" activeCellId="0" pane="topLeft" sqref="HE100"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1060,11 +1060,32 @@
       <c r="HO1" s="1" t="n">
         <v>10258</v>
       </c>
-      <c r="HP1" t="n">
+      <c r="HP1" s="1" t="n">
         <v>10263</v>
       </c>
+      <c r="HQ1" s="1" t="n">
+        <v>10277</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>10284</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>10291</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>10308</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>10317</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>10321</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10323</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1736,11 +1757,32 @@
       <c r="HO2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HP2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HQ2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HR2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HS2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HT2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HU2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HV2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2412,11 +2454,32 @@
       <c r="HO3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HP3" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HQ3" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HT3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HV3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3088,11 +3151,32 @@
       <c r="HO4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HP4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HQ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3764,11 +3848,32 @@
       <c r="HO5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HP5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HQ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4440,11 +4545,32 @@
       <c r="HO6" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HP6" t="n">
+      <c r="HP6" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="HQ6" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="HR6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="HS6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HT6" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="HU6" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV6" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5116,11 +5242,32 @@
       <c r="HO7" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HP7" t="n">
+      <c r="HP7" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="HQ7" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS7" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HT7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HU7" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HV7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5792,11 +5939,32 @@
       <c r="HO8" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HP8" t="n">
+      <c r="HP8" s="1" t="n">
         <v>-56</v>
       </c>
+      <c r="HQ8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HR8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HS8" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="HT8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HU8" s="1" t="n">
+        <v>-16</v>
+      </c>
+      <c r="HV8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>-68</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6468,11 +6636,32 @@
       <c r="HO9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP9" t="n">
+      <c r="HP9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7144,11 +7333,32 @@
       <c r="HO10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP10" t="n">
+      <c r="HP10" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HQ10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU10" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7820,11 +8030,32 @@
       <c r="HO11" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="HP11" t="n">
+      <c r="HP11" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="HQ11" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="HR11" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="HS11" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="HT11" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="HU11" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="HV11" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8496,11 +8727,32 @@
       <c r="HO12" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="HP12" t="n">
+      <c r="HP12" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="HQ12" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="HR12" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="HS12" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="HT12" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="HU12" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="HV12" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9172,11 +9424,32 @@
       <c r="HO13" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="HP13" t="n">
+      <c r="HP13" s="1" t="n">
         <v>314</v>
       </c>
+      <c r="HQ13" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="HR13" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="HS13" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="HT13" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="HU13" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="HV13" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>200</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9848,11 +10121,32 @@
       <c r="HO14" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="HP14" t="n">
+      <c r="HP14" s="1" t="n">
         <v>1.05</v>
       </c>
+      <c r="HQ14" s="1" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="HR14" s="1" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="HS14" s="1" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="HT14" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="HU14" s="1" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="HV14" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10524,11 +10818,32 @@
       <c r="HO15" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="HP15" t="n">
+      <c r="HP15" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="HQ15" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="HR15" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="HS15" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HT15" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="HU15" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="HV15" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11200,11 +11515,32 @@
       <c r="HO16" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HP16" t="n">
+      <c r="HP16" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HQ16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HR16" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HS16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="HT16" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HU16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HV16" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11876,11 +12212,32 @@
       <c r="HO17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HP17" t="n">
+      <c r="HP17" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HQ17" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HR17" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HU17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HV17" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -12552,11 +12909,32 @@
       <c r="HO18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HP18" t="n">
+      <c r="HP18" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HQ18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13228,11 +13606,32 @@
       <c r="HO19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HP19" t="n">
+      <c r="HP19" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HQ19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR19" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13904,11 +14303,32 @@
       <c r="HO20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP20" t="n">
+      <c r="HP20" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HQ20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV20" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -14580,11 +15000,32 @@
       <c r="HO21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP21" t="n">
+      <c r="HP21" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HQ21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15256,11 +15697,32 @@
       <c r="HO22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP22" t="n">
+      <c r="HP22" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HQ22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -15932,11 +16394,32 @@
       <c r="HO23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP23" t="n">
+      <c r="HP23" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HQ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -16608,11 +17091,32 @@
       <c r="HO24" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HP24" t="n">
+      <c r="HP24" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HQ24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HS24" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -17284,11 +17788,32 @@
       <c r="HO25" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="HP25" t="n">
+      <c r="HP25" s="1" t="n">
         <v>42.9</v>
       </c>
+      <c r="HQ25" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HR25" s="1" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HS25" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HT25" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HU25" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="HV25" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -17960,11 +18485,32 @@
       <c r="HO26" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="HP26" t="n">
+      <c r="HP26" s="1" t="n">
         <v>52.33</v>
       </c>
+      <c r="HQ26" s="1" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="HR26" s="1" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="HS26" s="1" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="HT26" s="1" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="HU26" s="1" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="HV26" s="1" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -18636,11 +19182,32 @@
       <c r="HO27" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HP27" t="n">
+      <c r="HP27" s="1" t="n">
         <v>22.43</v>
       </c>
+      <c r="HQ27" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="HR27" s="1" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="HS27" s="1" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="HT27" s="1" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="HU27" s="1" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="HV27" s="1" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>28.57</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -19312,11 +19879,32 @@
       <c r="HO28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HP28" t="n">
+      <c r="HP28" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HQ28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HR28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HU28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -19988,11 +20576,32 @@
       <c r="HO29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HP29" t="n">
+      <c r="HP29" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="HQ29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR29" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HS29" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT29" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HU29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HV29" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -20664,11 +21273,32 @@
       <c r="HO30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HP30" t="n">
+      <c r="HP30" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HQ30" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR30" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS30" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HT30" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU30" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HV30" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -21340,11 +21970,32 @@
       <c r="HO31" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HP31" t="n">
+      <c r="HP31" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HQ31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HS31" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HT31" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HU31" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HV31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -22016,11 +22667,32 @@
       <c r="HO32" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="HP32" t="n">
+      <c r="HP32" s="1" t="n">
         <v>2.93</v>
       </c>
+      <c r="HQ32" s="1" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="HR32" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="HS32" s="1" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="HT32" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="HU32" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HV32" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>4.29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -22692,11 +23364,32 @@
       <c r="HO33" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="HP33" t="n">
+      <c r="HP33" s="1" t="n">
         <v>6.83</v>
       </c>
+      <c r="HQ33" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="HR33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS33" s="1" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="HT33" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="HU33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV33" s="1" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -23368,11 +24061,32 @@
       <c r="HO34" s="1" t="n">
         <v>28.6</v>
       </c>
-      <c r="HP34" t="n">
+      <c r="HP34" s="1" t="n">
         <v>26.8</v>
       </c>
+      <c r="HQ34" s="1" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="HR34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HS34" s="1" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="HT34" s="1" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="HU34" s="1" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="HV34" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>23.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -24044,11 +24758,32 @@
       <c r="HO35" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="HP35" t="n">
+      <c r="HP35" s="1" t="n">
         <v>14.6</v>
       </c>
+      <c r="HQ35" s="1" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="HR35" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HS35" s="1" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="HT35" s="1" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="HU35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HV35" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -24720,11 +25455,32 @@
       <c r="HO36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="HP36" t="n">
+      <c r="HP36" s="1" t="n">
         <v>188.4</v>
       </c>
+      <c r="HQ36" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="HR36" s="1" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="HS36" s="1" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="HT36" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HU36" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="HV36" s="1" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>189.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -25396,11 +26152,32 @@
       <c r="HO37" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="HP37" t="n">
+      <c r="HP37" s="1" t="n">
         <v>88.3</v>
       </c>
+      <c r="HQ37" s="1" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="HR37" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="HS37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HT37" s="1" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="HU37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HV37" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -26072,11 +26849,32 @@
       <c r="HO38" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="HP38" t="n">
+      <c r="HP38" s="1" t="n">
         <v>26.74</v>
       </c>
+      <c r="HQ38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HR38" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HT38" s="1" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="HU38" s="1" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="HV38" s="1" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -26748,11 +27546,32 @@
       <c r="HO39" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="HP39" t="n">
+      <c r="HP39" s="1" t="n">
         <v>107.7</v>
       </c>
+      <c r="HQ39" s="1" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="HR39" s="1" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="HS39" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="HT39" s="1" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="HU39" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="HV39" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>112</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -27424,11 +28243,32 @@
       <c r="HO40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HP40" t="n">
+      <c r="HP40" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HQ40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -28100,11 +28940,32 @@
       <c r="HO41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP41" t="n">
+      <c r="HP41" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HQ41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -28776,11 +29637,32 @@
       <c r="HO42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HP42" t="n">
+      <c r="HP42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HQ42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -29452,11 +30334,32 @@
       <c r="HO43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP43" t="n">
+      <c r="HP43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HQ43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -30128,11 +31031,32 @@
       <c r="HO44" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="HP44" t="n">
+      <c r="HP44" s="1" t="n">
         <v>122</v>
       </c>
+      <c r="HQ44" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="HR44" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="HS44" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="HT44" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="HU44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HV44" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>85</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -30804,11 +31728,32 @@
       <c r="HO45" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="HP45" t="n">
+      <c r="HP45" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="HQ45" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="HR45" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="HS45" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="HT45" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HU45" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="HV45" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>109</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -31480,11 +32425,32 @@
       <c r="HO46" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HP46" t="n">
+      <c r="HP46" s="1" t="n">
         <v>214</v>
       </c>
+      <c r="HQ46" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="HR46" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="HS46" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="HT46" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="HU46" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="HV46" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>127</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -32156,11 +33122,32 @@
       <c r="HO47" s="1" t="n">
         <v>74.7</v>
       </c>
-      <c r="HP47" t="n">
+      <c r="HP47" s="1" t="n">
         <v>68.2</v>
       </c>
+      <c r="HQ47" s="1" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="HR47" s="1" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="HS47" s="1" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="HT47" s="1" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HU47" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="HV47" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>63.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -32832,11 +33819,32 @@
       <c r="HO48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HP48" t="n">
+      <c r="HP48" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="HQ48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR48" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HS48" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT48" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HU48" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="HV48" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -33508,11 +34516,32 @@
       <c r="HO49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HP49" t="n">
+      <c r="HP49" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HQ49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -34184,11 +35213,32 @@
       <c r="HO50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HP50" t="n">
+      <c r="HP50" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HQ50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -34860,11 +35910,32 @@
       <c r="HO51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HP51" t="n">
+      <c r="HP51" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HQ51" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HR51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT51" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HU51" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV51" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -35536,11 +36607,32 @@
       <c r="HO52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HP52" t="n">
+      <c r="HP52" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HQ52" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR52" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HT52" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU52" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HV52" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -36212,11 +37304,32 @@
       <c r="HO53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HP53" t="n">
+      <c r="HP53" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HQ53" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HR53" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HS53" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HT53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HU53" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HV53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -36888,11 +38001,32 @@
       <c r="HO54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HP54" t="n">
+      <c r="HP54" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HQ54" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -37564,11 +38698,32 @@
       <c r="HO55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP55" t="n">
+      <c r="HP55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HQ55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV55" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -38240,11 +39395,32 @@
       <c r="HO56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HP56" t="n">
+      <c r="HP56" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="HQ56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR56" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HS56" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="HT56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU56" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="HV56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -38916,11 +40092,32 @@
       <c r="HO57" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="HP57" t="n">
+      <c r="HP57" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="HQ57" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="HR57" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="HS57" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="HT57" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="HU57" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="HV57" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>228</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -39592,11 +40789,32 @@
       <c r="HO58" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HP58" t="n">
+      <c r="HP58" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="HQ58" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="HR58" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="HS58" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="HT58" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="HU58" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="HV58" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>130</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -40268,11 +41486,32 @@
       <c r="HO59" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="HP59" t="n">
+      <c r="HP59" s="1" t="n">
         <v>322</v>
       </c>
+      <c r="HQ59" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="HR59" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="HS59" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="HT59" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="HU59" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="HV59" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>358</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -40944,11 +42183,32 @@
       <c r="HO60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="HP60" t="n">
+      <c r="HP60" s="1" t="n">
         <v>1.6</v>
       </c>
+      <c r="HQ60" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="HR60" s="1" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="HS60" s="1" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="HT60" s="1" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="HU60" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="HV60" s="1" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -41620,11 +42880,32 @@
       <c r="HO61" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="HP61" t="n">
+      <c r="HP61" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="HQ61" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="HR61" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="HS61" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="HT61" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="HU61" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="HV61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>134</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -42296,11 +43577,32 @@
       <c r="HO62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HP62" t="n">
+      <c r="HP62" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HQ62" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="HR62" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="HS62" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="HT62" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HU62" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HV62" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -42972,11 +44274,32 @@
       <c r="HO63" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HP63" t="n">
+      <c r="HP63" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="HQ63" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HR63" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HS63" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HT63" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU63" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV63" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -43648,11 +44971,32 @@
       <c r="HO64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HP64" t="n">
+      <c r="HP64" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HQ64" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR64" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS64" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT64" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU64" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -44324,11 +45668,32 @@
       <c r="HO65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HP65" t="n">
+      <c r="HP65" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HQ65" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR65" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HS65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="HV65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -45000,11 +46365,32 @@
       <c r="HO66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP66" t="n">
+      <c r="HP66" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HQ66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -45676,11 +47062,32 @@
       <c r="HO67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP67" t="n">
+      <c r="HP67" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HQ67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -46352,11 +47759,32 @@
       <c r="HO68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP68" t="n">
+      <c r="HP68" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HQ68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -47028,11 +48456,32 @@
       <c r="HO69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP69" t="n">
+      <c r="HP69" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HQ69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -47704,11 +49153,32 @@
       <c r="HO70" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HP70" t="n">
+      <c r="HP70" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="HQ70" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR70" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HU70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HV70" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -48380,11 +49850,32 @@
       <c r="HO71" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="HP71" t="n">
+      <c r="HP71" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="HQ71" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR71" s="1" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HS71" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HT71" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HU71" s="1" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="HV71" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -49056,11 +50547,32 @@
       <c r="HO72" s="1" t="n">
         <v>55.4</v>
       </c>
-      <c r="HP72" t="n">
+      <c r="HP72" s="1" t="n">
         <v>20.12</v>
       </c>
+      <c r="HQ72" s="1" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="HR72" s="1" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="HS72" s="1" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="HT72" s="1" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="HU72" s="1" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="HV72" s="1" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>23.87</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -49732,11 +51244,32 @@
       <c r="HO73" s="1" t="n">
         <v>21.31</v>
       </c>
-      <c r="HP73" t="n">
+      <c r="HP73" s="1" t="n">
         <v>16.1</v>
       </c>
+      <c r="HQ73" s="1" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="HR73" s="1" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="HS73" s="1" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="HT73" s="1" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="HU73" s="1" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="HV73" s="1" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>14.32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -50408,11 +51941,32 @@
       <c r="HO74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP74" t="n">
+      <c r="HP74" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="HQ74" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HR74" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HS74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HU74" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -51084,11 +52638,32 @@
       <c r="HO75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HP75" t="n">
+      <c r="HP75" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="HQ75" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HR75" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS75" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HT75" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HV75" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -51760,11 +53335,32 @@
       <c r="HO76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HP76" t="n">
+      <c r="HP76" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HQ76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR76" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HS76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU76" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV76" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -52436,11 +54032,32 @@
       <c r="HO77" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HP77" t="n">
+      <c r="HP77" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HQ77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HR77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HS77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HT77" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HU77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HV77" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -53112,11 +54729,32 @@
       <c r="HO78" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="HP78" t="n">
+      <c r="HP78" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HQ78" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="HR78" s="1" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="HS78" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HT78" s="1" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="HU78" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="HV78" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>1.84</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -53788,11 +55426,32 @@
       <c r="HO79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HP79" t="n">
+      <c r="HP79" s="1" t="n">
         <v>2.5</v>
       </c>
+      <c r="HQ79" s="1" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="HR79" s="1" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="HS79" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="HT79" s="1" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="HU79" s="1" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="HV79" s="1" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>3.07</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -54464,11 +56123,32 @@
       <c r="HO80" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HP80" t="n">
+      <c r="HP80" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HQ80" s="1" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="HR80" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="HS80" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HT80" s="1" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="HU80" s="1" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="HV80" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>47.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -55140,11 +56820,32 @@
       <c r="HO81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="HP81" t="n">
+      <c r="HP81" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="HQ81" s="1" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="HR81" s="1" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="HS81" s="1" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="HT81" s="1" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="HU81" s="1" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="HV81" s="1" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>32.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -55816,11 +57517,32 @@
       <c r="HO82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HP82" t="n">
+      <c r="HP82" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="HQ82" s="1" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="HR82" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="HS82" s="1" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HT82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HU82" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HV82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -56492,11 +58214,32 @@
       <c r="HO83" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="HP83" t="n">
+      <c r="HP83" s="1" t="n">
         <v>87.3</v>
       </c>
+      <c r="HQ83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="HR83" s="1" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="HS83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HT83" s="1" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="HU83" s="1" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="HV83" s="1" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>89.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -57168,11 +58911,32 @@
       <c r="HO84" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="HP84" t="n">
+      <c r="HP84" s="1" t="n">
         <v>25.41</v>
       </c>
+      <c r="HQ84" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="HR84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HS84" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HT84" s="1" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="HU84" s="1" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="HV84" s="1" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>28.24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -57844,11 +59608,32 @@
       <c r="HO85" s="1" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="HP85" t="n">
+      <c r="HP85" s="1" t="n">
         <v>94.3</v>
       </c>
+      <c r="HQ85" s="1" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="HR85" s="1" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="HS85" s="1" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="HT85" s="1" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="HU85" s="1" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="HV85" s="1" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>160.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -58520,11 +60305,32 @@
       <c r="HO86" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HP86" t="n">
+      <c r="HP86" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HQ86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV86" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -59196,11 +61002,32 @@
       <c r="HO87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HP87" t="n">
+      <c r="HP87" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HQ87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -59872,11 +61699,32 @@
       <c r="HO88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP88" t="n">
+      <c r="HP88" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HQ88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -60548,11 +62396,32 @@
       <c r="HO89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HP89" t="n">
+      <c r="HP89" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HQ89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU89" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV89" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -61224,11 +63093,32 @@
       <c r="HO90" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="HP90" t="n">
+      <c r="HP90" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="HQ90" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="HR90" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="HS90" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="HT90" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="HU90" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="HV90" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -61900,11 +63790,32 @@
       <c r="HO91" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="HP91" t="n">
+      <c r="HP91" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="HQ91" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="HR91" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="HS91" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="HT91" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="HU91" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="HV91" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -62576,11 +64487,32 @@
       <c r="HO92" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="HP92" t="n">
+      <c r="HP92" s="1" t="n">
         <v>248</v>
       </c>
+      <c r="HQ92" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="HR92" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="HS92" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HT92" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="HU92" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="HV92" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>287</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -63252,11 +65184,32 @@
       <c r="HO93" s="1" t="n">
         <v>71.5</v>
       </c>
-      <c r="HP93" t="n">
+      <c r="HP93" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="HQ93" s="1" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="HR93" s="1" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="HS93" s="1" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="HT93" s="1" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="HU93" s="1" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="HV93" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>80.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -63928,11 +65881,32 @@
       <c r="HO94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="HP94" t="n">
+      <c r="HP94" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="HQ94" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HR94" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS94" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HT94" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU94" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HV94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -64604,11 +66578,32 @@
       <c r="HO95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HP95" t="n">
+      <c r="HP95" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HQ95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT95" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU95" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -65280,11 +67275,32 @@
       <c r="HO96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HP96" t="n">
+      <c r="HP96" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="HQ96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT96" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU96" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -65956,11 +67972,32 @@
       <c r="HO97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="HP97" t="n">
+      <c r="HP97" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="HQ97" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HR97" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HS97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HT97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HU97" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -66632,11 +68669,32 @@
       <c r="HO98" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HP98" t="n">
+      <c r="HP98" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HQ98" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HR98" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="HS98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HT98" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HU98" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV98" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -67308,11 +69366,32 @@
       <c r="HO99" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HP99" t="n">
+      <c r="HP99" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="HQ99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HR99" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HS99" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="HT99" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="HU99" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HV99" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -67984,11 +70063,32 @@
       <c r="HO100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HP100" t="n">
+      <c r="HP100" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HQ100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -68660,11 +70760,32 @@
       <c r="HO101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HP101" t="n">
+      <c r="HP101" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HQ101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -69336,13 +71457,34 @@
       <c r="HO102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HP102" t="n">
+      <c r="HP102" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="HQ102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HR102" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="HS102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HT102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HV102" s="1" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>